--- a/src/test/java/GDS Tech Challenge.xlsx
+++ b/src/test/java/GDS Tech Challenge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECQ1046\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECQ1046\GDS Tech Challenge\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74526E43-3E67-4C9F-BC1D-352885770615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5E5B8-337B-4F7E-B2E3-B20F336D0DF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8580" activeTab="2" xr2:uid="{90A3D36A-1EF0-4D01-A50A-028479CF5E69}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8580" xr2:uid="{90A3D36A-1EF0-4D01-A50A-028479CF5E69}"/>
   </bookViews>
   <sheets>
     <sheet name="Eligibility" sheetId="1" r:id="rId1"/>
@@ -1063,7 +1063,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
@@ -1071,19 +1071,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1405,17 +1417,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97154C7-3270-4DCD-8D9B-25C6626CA986}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="37.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1450,7 +1464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1460,19 +1474,19 @@
       <c r="C2" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>127</v>
       </c>
       <c r="G2" t="s">
         <v>126</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="13" t="s">
         <v>161</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1489,15 +1503,15 @@
       <c r="C3" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="12" t="s">
         <v>162</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1514,13 +1528,13 @@
       <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="4" t="s">
         <v>107</v>
       </c>
@@ -1535,13 +1549,13 @@
       <c r="C5" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="4" t="s">
         <v>107</v>
       </c>
@@ -1556,13 +1570,13 @@
       <c r="C6" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="4" t="s">
         <v>107</v>
       </c>
@@ -1577,13 +1591,13 @@
       <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="4" t="s">
         <v>107</v>
       </c>
@@ -1604,7 +1618,8 @@
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1612,7 +1627,9 @@
     <col min="2" max="2" width="43.21875" customWidth="1"/>
     <col min="3" max="3" width="66.5546875" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="10" max="10" width="63.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1655,13 +1672,13 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>128</v>
       </c>
       <c r="F2" t="s">
@@ -1670,7 +1687,7 @@
       <c r="G2" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>163</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1684,11 +1701,11 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="7" t="s">
         <v>129</v>
       </c>
       <c r="F3" t="s">
@@ -1697,7 +1714,7 @@
       <c r="G3" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="4" t="s">
         <v>107</v>
       </c>
@@ -1709,11 +1726,11 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="7" t="s">
         <v>130</v>
       </c>
       <c r="F4" t="s">
@@ -1722,7 +1739,7 @@
       <c r="G4" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="4" t="s">
         <v>107</v>
       </c>
@@ -1734,11 +1751,11 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="7" t="s">
         <v>131</v>
       </c>
       <c r="F5" t="s">
@@ -1747,7 +1764,7 @@
       <c r="G5" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="4" t="s">
         <v>107</v>
       </c>
@@ -1756,14 +1773,14 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="9" t="s">
         <v>132</v>
       </c>
       <c r="F6" t="s">
@@ -1772,7 +1789,7 @@
       <c r="G6" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="10" t="s">
         <v>164</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1783,19 +1800,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="10"/>
       <c r="F7" t="s">
         <v>144</v>
       </c>
       <c r="G7" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="4" t="s">
         <v>107</v>
       </c>
@@ -1804,19 +1821,19 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="10"/>
       <c r="F8" t="s">
         <v>144</v>
       </c>
       <c r="G8" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="4" t="s">
         <v>107</v>
       </c>
@@ -1825,16 +1842,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="10"/>
       <c r="F9" t="s">
         <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="5" t="s">
         <v>114</v>
       </c>
@@ -1846,19 +1863,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="10"/>
       <c r="F10" t="s">
         <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="4" t="s">
         <v>107</v>
       </c>
@@ -1867,23 +1884,23 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="9"/>
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
       <c r="F11" t="s">
         <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1891,80 +1908,80 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="9"/>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="10"/>
       <c r="F12" t="s">
         <v>110</v>
       </c>
       <c r="G12" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="9"/>
       <c r="C13">
         <v>123</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="10"/>
       <c r="F13" t="s">
         <v>110</v>
       </c>
       <c r="G13" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="10"/>
       <c r="F14" t="s">
         <v>110</v>
       </c>
       <c r="G14" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="9" t="s">
         <v>133</v>
       </c>
       <c r="F15" t="s">
@@ -1973,7 +1990,7 @@
       <c r="G15" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="4" t="s">
         <v>107</v>
       </c>
@@ -1982,19 +1999,19 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="10"/>
       <c r="F16" t="s">
         <v>144</v>
       </c>
       <c r="G16" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="4" t="s">
         <v>107</v>
       </c>
@@ -2003,19 +2020,19 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="9"/>
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="10"/>
       <c r="F17" t="s">
         <v>144</v>
       </c>
       <c r="G17" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="4" t="s">
         <v>107</v>
       </c>
@@ -2024,19 +2041,19 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="9"/>
       <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="10"/>
       <c r="F18" t="s">
         <v>144</v>
       </c>
       <c r="G18" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="4" t="s">
         <v>107</v>
       </c>
@@ -2045,19 +2062,19 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="9"/>
       <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="10"/>
       <c r="F19" t="s">
         <v>111</v>
       </c>
       <c r="G19" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="4" t="s">
         <v>107</v>
       </c>
@@ -2066,16 +2083,16 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="10"/>
       <c r="F20" t="s">
         <v>110</v>
       </c>
       <c r="G20" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="5" t="s">
         <v>114</v>
       </c>
@@ -2087,23 +2104,23 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="10"/>
       <c r="F21" t="s">
         <v>110</v>
       </c>
       <c r="G21" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2111,58 +2128,58 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="9"/>
       <c r="C22">
         <v>123</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="10"/>
       <c r="F22" t="s">
         <v>110</v>
       </c>
       <c r="G22" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="10"/>
       <c r="F23" t="s">
         <v>110</v>
       </c>
       <c r="G23" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C24">
         <v>91239123</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="9" t="s">
         <v>134</v>
       </c>
       <c r="F24" t="s">
@@ -2171,7 +2188,7 @@
       <c r="G24" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="4" t="s">
         <v>107</v>
       </c>
@@ -2180,19 +2197,19 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="9"/>
       <c r="C25">
         <v>912391234</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="10"/>
       <c r="F25" t="s">
         <v>111</v>
       </c>
       <c r="G25" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="4" t="s">
         <v>107</v>
       </c>
@@ -2201,19 +2218,19 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="9"/>
       <c r="C26">
         <v>9123912</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="10"/>
       <c r="F26" t="s">
         <v>112</v>
       </c>
       <c r="G26" t="s">
         <v>126</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="4" t="s">
         <v>107</v>
       </c>
@@ -2222,19 +2239,19 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="9"/>
       <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="10"/>
       <c r="F27" t="s">
         <v>111</v>
       </c>
       <c r="G27" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="4" t="s">
         <v>107</v>
       </c>
@@ -2243,16 +2260,16 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="10"/>
       <c r="F28" t="s">
         <v>110</v>
       </c>
       <c r="G28" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="5" t="s">
         <v>114</v>
       </c>
@@ -2264,19 +2281,19 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="9"/>
       <c r="C29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G29" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="4" t="s">
         <v>107</v>
       </c>
@@ -2285,17 +2302,17 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="9"/>
       <c r="C30" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
       <c r="G30" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="4" t="s">
         <v>107</v>
       </c>
@@ -2304,17 +2321,17 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="9"/>
       <c r="C31" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
       <c r="G31" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="4" t="s">
         <v>107</v>
       </c>
@@ -2323,17 +2340,17 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="9"/>
       <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9"/>
       <c r="G32" t="s">
         <v>126</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="4" t="s">
         <v>107</v>
       </c>
@@ -2342,14 +2359,14 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="9" t="s">
         <v>135</v>
       </c>
       <c r="F33" t="s">
@@ -2358,7 +2375,7 @@
       <c r="G33" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="4" t="s">
         <v>107</v>
       </c>
@@ -2367,19 +2384,19 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="9"/>
       <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="9"/>
       <c r="F34" t="s">
         <v>144</v>
       </c>
       <c r="G34" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="4" t="s">
         <v>107</v>
       </c>
@@ -2388,19 +2405,19 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="9"/>
       <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="9"/>
       <c r="F35" t="s">
         <v>144</v>
       </c>
       <c r="G35" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="4" t="s">
         <v>107</v>
       </c>
@@ -2409,19 +2426,19 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="9"/>
       <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="9"/>
       <c r="F36" t="s">
         <v>144</v>
       </c>
       <c r="G36" t="s">
         <v>126</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="4" t="s">
         <v>107</v>
       </c>
@@ -2430,19 +2447,19 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="9"/>
       <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="9"/>
       <c r="F37" t="s">
         <v>144</v>
       </c>
       <c r="G37" t="s">
         <v>126</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="4" t="s">
         <v>107</v>
       </c>
@@ -2451,19 +2468,19 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="9"/>
       <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="9"/>
       <c r="F38" t="s">
         <v>144</v>
       </c>
       <c r="G38" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="4" t="s">
         <v>107</v>
       </c>
@@ -2472,19 +2489,19 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="9"/>
       <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="9"/>
       <c r="F39" t="s">
         <v>144</v>
       </c>
       <c r="G39" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="4" t="s">
         <v>107</v>
       </c>
@@ -2493,19 +2510,19 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="9"/>
       <c r="F40" t="s">
         <v>144</v>
       </c>
       <c r="G40" t="s">
         <v>126</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="10"/>
       <c r="I40" s="4" t="s">
         <v>107</v>
       </c>
@@ -2514,19 +2531,19 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="9"/>
       <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="9"/>
       <c r="F41" t="s">
         <v>144</v>
       </c>
       <c r="G41" t="s">
         <v>126</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="4" t="s">
         <v>107</v>
       </c>
@@ -2535,19 +2552,19 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="9"/>
       <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="9"/>
       <c r="F42" t="s">
         <v>112</v>
       </c>
       <c r="G42" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="8"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="4" t="s">
         <v>107</v>
       </c>
@@ -2556,19 +2573,19 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="9"/>
       <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="9"/>
       <c r="F43" t="s">
         <v>112</v>
       </c>
       <c r="G43" t="s">
         <v>126</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="4" t="s">
         <v>107</v>
       </c>
@@ -2577,19 +2594,19 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="9"/>
       <c r="C44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="9"/>
       <c r="F44" t="s">
         <v>112</v>
       </c>
       <c r="G44" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="4" t="s">
         <v>107</v>
       </c>
@@ -2598,19 +2615,19 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="9"/>
       <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="9"/>
       <c r="F45" t="s">
         <v>112</v>
       </c>
       <c r="G45" t="s">
         <v>126</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="4" t="s">
         <v>107</v>
       </c>
@@ -2619,16 +2636,16 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="B46" s="9"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="9"/>
       <c r="F46" t="s">
         <v>112</v>
       </c>
       <c r="G46" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="8"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="5" t="s">
         <v>114</v>
       </c>
@@ -2640,19 +2657,19 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="9"/>
       <c r="C47" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="9"/>
       <c r="F47" t="s">
         <v>112</v>
       </c>
       <c r="G47" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="8"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="4" t="s">
         <v>107</v>
       </c>
@@ -2661,19 +2678,19 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="9"/>
       <c r="C48" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="9"/>
       <c r="F48" t="s">
         <v>112</v>
       </c>
       <c r="G48" t="s">
         <v>126</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="4" t="s">
         <v>107</v>
       </c>
@@ -2682,19 +2699,19 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="9"/>
       <c r="C49" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="9"/>
       <c r="F49" t="s">
         <v>112</v>
       </c>
       <c r="G49" t="s">
         <v>126</v>
       </c>
-      <c r="H49" s="8"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="4" t="s">
         <v>107</v>
       </c>
@@ -2703,19 +2720,19 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="9"/>
       <c r="C50" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="9"/>
       <c r="F50" t="s">
         <v>112</v>
       </c>
       <c r="G50" t="s">
         <v>126</v>
       </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="10"/>
       <c r="I50" s="4" t="s">
         <v>107</v>
       </c>
@@ -2724,14 +2741,14 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7" t="s">
+      <c r="D51" s="15"/>
+      <c r="E51" s="9" t="s">
         <v>136</v>
       </c>
       <c r="F51" t="s">
@@ -2740,7 +2757,7 @@
       <c r="G51" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="8"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="4" t="s">
         <v>107</v>
       </c>
@@ -2749,19 +2766,19 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="7"/>
+      <c r="B52" s="9"/>
       <c r="C52" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="9"/>
       <c r="F52" t="s">
         <v>144</v>
       </c>
       <c r="G52" t="s">
         <v>126</v>
       </c>
-      <c r="H52" s="8"/>
+      <c r="H52" s="10"/>
       <c r="I52" s="4" t="s">
         <v>107</v>
       </c>
@@ -2770,19 +2787,19 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="7"/>
+      <c r="B53" s="9"/>
       <c r="C53" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="9"/>
       <c r="F53" t="s">
         <v>144</v>
       </c>
       <c r="G53" t="s">
         <v>126</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="4" t="s">
         <v>107</v>
       </c>
@@ -2791,19 +2808,19 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="7"/>
+      <c r="B54" s="9"/>
       <c r="C54" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="9"/>
       <c r="F54" t="s">
         <v>144</v>
       </c>
       <c r="G54" t="s">
         <v>126</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" s="10"/>
       <c r="I54" s="4" t="s">
         <v>107</v>
       </c>
@@ -2812,19 +2829,19 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B55" s="9"/>
       <c r="C55" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="9"/>
       <c r="F55" t="s">
         <v>144</v>
       </c>
       <c r="G55" t="s">
         <v>126</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="4" t="s">
         <v>107</v>
       </c>
@@ -2833,19 +2850,19 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="9"/>
       <c r="C56" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="9"/>
       <c r="F56" t="s">
         <v>144</v>
       </c>
       <c r="G56" t="s">
         <v>126</v>
       </c>
-      <c r="H56" s="8"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="4" t="s">
         <v>107</v>
       </c>
@@ -2854,19 +2871,19 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="7"/>
+      <c r="B57" s="9"/>
       <c r="C57" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="9"/>
       <c r="F57" t="s">
         <v>144</v>
       </c>
       <c r="G57" t="s">
         <v>126</v>
       </c>
-      <c r="H57" s="8"/>
+      <c r="H57" s="10"/>
       <c r="I57" s="4" t="s">
         <v>107</v>
       </c>
@@ -2875,19 +2892,19 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="7"/>
+      <c r="B58" s="9"/>
       <c r="C58" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="9"/>
       <c r="F58" t="s">
         <v>144</v>
       </c>
       <c r="G58" t="s">
         <v>126</v>
       </c>
-      <c r="H58" s="8"/>
+      <c r="H58" s="10"/>
       <c r="I58" s="4" t="s">
         <v>107</v>
       </c>
@@ -2896,19 +2913,19 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="9"/>
       <c r="C59" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="9"/>
       <c r="F59" t="s">
         <v>144</v>
       </c>
       <c r="G59" t="s">
         <v>126</v>
       </c>
-      <c r="H59" s="8"/>
+      <c r="H59" s="10"/>
       <c r="I59" s="4" t="s">
         <v>107</v>
       </c>
@@ -2917,16 +2934,16 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="B60" s="9"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="9"/>
       <c r="F60" t="s">
         <v>144</v>
       </c>
       <c r="G60" t="s">
         <v>126</v>
       </c>
-      <c r="H60" s="8"/>
+      <c r="H60" s="10"/>
       <c r="I60" s="4" t="s">
         <v>107</v>
       </c>
@@ -2935,19 +2952,19 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="7"/>
+      <c r="B61" s="9"/>
       <c r="C61" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="9"/>
       <c r="F61" t="s">
         <v>112</v>
       </c>
       <c r="G61" t="s">
         <v>126</v>
       </c>
-      <c r="H61" s="8"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="4" t="s">
         <v>107</v>
       </c>
@@ -2956,19 +2973,19 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="9"/>
       <c r="C62" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="9"/>
       <c r="F62" t="s">
         <v>112</v>
       </c>
       <c r="G62" t="s">
         <v>126</v>
       </c>
-      <c r="H62" s="8"/>
+      <c r="H62" s="10"/>
       <c r="I62" s="4" t="s">
         <v>107</v>
       </c>
@@ -2977,19 +2994,19 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="7"/>
+      <c r="B63" s="9"/>
       <c r="C63" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="9"/>
       <c r="F63" t="s">
         <v>112</v>
       </c>
       <c r="G63" t="s">
         <v>126</v>
       </c>
-      <c r="H63" s="8"/>
+      <c r="H63" s="10"/>
       <c r="I63" s="4" t="s">
         <v>107</v>
       </c>
@@ -2998,19 +3015,19 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="7"/>
+      <c r="B64" s="9"/>
       <c r="C64" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="9"/>
       <c r="F64" t="s">
         <v>112</v>
       </c>
       <c r="G64" t="s">
         <v>126</v>
       </c>
-      <c r="H64" s="8"/>
+      <c r="H64" s="10"/>
       <c r="I64" s="4" t="s">
         <v>107</v>
       </c>
@@ -3019,19 +3036,19 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="7"/>
+      <c r="B65" s="9"/>
       <c r="C65" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="9"/>
       <c r="F65" t="s">
         <v>112</v>
       </c>
       <c r="G65" t="s">
         <v>126</v>
       </c>
-      <c r="H65" s="8"/>
+      <c r="H65" s="10"/>
       <c r="I65" s="4" t="s">
         <v>107</v>
       </c>
@@ -3040,19 +3057,19 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="7"/>
+      <c r="B66" s="9"/>
       <c r="C66" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="9"/>
       <c r="F66" t="s">
         <v>112</v>
       </c>
       <c r="G66" t="s">
         <v>126</v>
       </c>
-      <c r="H66" s="8"/>
+      <c r="H66" s="10"/>
       <c r="I66" s="4" t="s">
         <v>107</v>
       </c>
@@ -3061,19 +3078,19 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="9"/>
       <c r="C67" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="9"/>
       <c r="F67" t="s">
         <v>112</v>
       </c>
       <c r="G67" t="s">
         <v>126</v>
       </c>
-      <c r="H67" s="8"/>
+      <c r="H67" s="10"/>
       <c r="I67" s="4" t="s">
         <v>107</v>
       </c>
@@ -3082,19 +3099,19 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="9"/>
       <c r="C68" t="s">
         <v>55</v>
       </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="9"/>
       <c r="F68" t="s">
         <v>112</v>
       </c>
       <c r="G68" t="s">
         <v>126</v>
       </c>
-      <c r="H68" s="8"/>
+      <c r="H68" s="10"/>
       <c r="I68" s="4" t="s">
         <v>107</v>
       </c>
@@ -3103,19 +3120,19 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="7"/>
+      <c r="B69" s="9"/>
       <c r="C69" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="9"/>
       <c r="F69" t="s">
         <v>112</v>
       </c>
       <c r="G69" t="s">
         <v>126</v>
       </c>
-      <c r="H69" s="8"/>
+      <c r="H69" s="10"/>
       <c r="I69" s="4" t="s">
         <v>107</v>
       </c>
@@ -3124,14 +3141,14 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C70">
         <v>650320</v>
       </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7" t="s">
+      <c r="D70" s="15"/>
+      <c r="E70" s="9" t="s">
         <v>137</v>
       </c>
       <c r="F70" t="s">
@@ -3140,7 +3157,7 @@
       <c r="G70" t="s">
         <v>126</v>
       </c>
-      <c r="H70" s="8"/>
+      <c r="H70" s="10"/>
       <c r="I70" s="4" t="s">
         <v>107</v>
       </c>
@@ -3149,19 +3166,19 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="7"/>
+      <c r="B71" s="9"/>
       <c r="C71">
         <v>6503201</v>
       </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="9"/>
       <c r="F71" t="s">
         <v>111</v>
       </c>
       <c r="G71" t="s">
         <v>126</v>
       </c>
-      <c r="H71" s="8"/>
+      <c r="H71" s="10"/>
       <c r="I71" s="4" t="s">
         <v>107</v>
       </c>
@@ -3170,19 +3187,19 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="7"/>
+      <c r="B72" s="9"/>
       <c r="C72">
         <v>65032</v>
       </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="9"/>
       <c r="F72" t="s">
         <v>112</v>
       </c>
       <c r="G72" t="s">
         <v>126</v>
       </c>
-      <c r="H72" s="8"/>
+      <c r="H72" s="10"/>
       <c r="I72" s="4" t="s">
         <v>107</v>
       </c>
@@ -3191,19 +3208,19 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="7"/>
+      <c r="B73" s="9"/>
       <c r="C73" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="9"/>
       <c r="F73" t="s">
         <v>111</v>
       </c>
       <c r="G73" t="s">
         <v>126</v>
       </c>
-      <c r="H73" s="8"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="4" t="s">
         <v>107</v>
       </c>
@@ -3212,16 +3229,16 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="B74" s="9"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="9"/>
       <c r="F74" t="s">
         <v>112</v>
       </c>
       <c r="G74" t="s">
         <v>126</v>
       </c>
-      <c r="H74" s="8"/>
+      <c r="H74" s="10"/>
       <c r="I74" s="5" t="s">
         <v>114</v>
       </c>
@@ -3233,19 +3250,19 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="7"/>
+      <c r="B75" s="9"/>
       <c r="C75" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7" t="s">
+      <c r="D75" s="15"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
         <v>113</v>
       </c>
       <c r="G75" t="s">
         <v>126</v>
       </c>
-      <c r="H75" s="8"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="4" t="s">
         <v>107</v>
       </c>
@@ -3254,17 +3271,17 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="7"/>
+      <c r="B76" s="9"/>
       <c r="C76" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
       <c r="G76" t="s">
         <v>126</v>
       </c>
-      <c r="H76" s="8"/>
+      <c r="H76" s="10"/>
       <c r="I76" s="4" t="s">
         <v>107</v>
       </c>
@@ -3273,17 +3290,17 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="7"/>
+      <c r="B77" s="9"/>
       <c r="C77" t="s">
         <v>39</v>
       </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
       <c r="G77" t="s">
         <v>126</v>
       </c>
-      <c r="H77" s="8"/>
+      <c r="H77" s="10"/>
       <c r="I77" s="4" t="s">
         <v>107</v>
       </c>
@@ -3292,17 +3309,17 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="7"/>
+      <c r="B78" s="9"/>
       <c r="C78" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
       <c r="G78" t="s">
         <v>126</v>
       </c>
-      <c r="H78" s="8"/>
+      <c r="H78" s="10"/>
       <c r="I78" s="4" t="s">
         <v>107</v>
       </c>
@@ -3311,14 +3328,14 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7" t="s">
+      <c r="D79" s="15"/>
+      <c r="E79" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F79" t="s">
@@ -3327,7 +3344,7 @@
       <c r="G79" t="s">
         <v>126</v>
       </c>
-      <c r="H79" s="8"/>
+      <c r="H79" s="10"/>
       <c r="I79" s="4" t="s">
         <v>107</v>
       </c>
@@ -3336,19 +3353,19 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="7"/>
+      <c r="B80" s="9"/>
       <c r="C80">
         <v>99999</v>
       </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="9"/>
       <c r="F80" t="s">
         <v>112</v>
       </c>
       <c r="G80" t="s">
         <v>126</v>
       </c>
-      <c r="H80" s="8"/>
+      <c r="H80" s="10"/>
       <c r="I80" s="5" t="s">
         <v>114</v>
       </c>
@@ -3360,23 +3377,23 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="7"/>
+      <c r="B81" s="9"/>
       <c r="C81" t="s">
         <v>70</v>
       </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="9"/>
       <c r="F81" t="s">
         <v>112</v>
       </c>
       <c r="G81" t="s">
         <v>126</v>
       </c>
-      <c r="H81" s="8"/>
+      <c r="H81" s="10"/>
       <c r="I81" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="J81" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3384,63 +3401,63 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="7"/>
+      <c r="B82" s="9"/>
       <c r="C82" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="9"/>
       <c r="F82" t="s">
         <v>112</v>
       </c>
       <c r="G82" t="s">
         <v>126</v>
       </c>
-      <c r="H82" s="8"/>
+      <c r="H82" s="10"/>
       <c r="I82" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J82" s="7"/>
+      <c r="J82" s="9"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="7"/>
+      <c r="B83" s="9"/>
       <c r="C83" t="s">
         <v>39</v>
       </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="9"/>
       <c r="F83" t="s">
         <v>112</v>
       </c>
       <c r="G83" t="s">
         <v>126</v>
       </c>
-      <c r="H83" s="8"/>
+      <c r="H83" s="10"/>
       <c r="I83" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J83" s="7"/>
+      <c r="J83" s="9"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="7"/>
+      <c r="B84" s="9"/>
       <c r="C84" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="9"/>
       <c r="F84" t="s">
         <v>112</v>
       </c>
       <c r="G84" t="s">
         <v>126</v>
       </c>
-      <c r="H84" s="8"/>
+      <c r="H84" s="10"/>
       <c r="I84" s="6" t="s">
         <v>115</v>
       </c>
@@ -3449,14 +3466,14 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C85">
         <v>33</v>
       </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7" t="s">
+      <c r="D85" s="15"/>
+      <c r="E85" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F85" t="s">
@@ -3465,7 +3482,7 @@
       <c r="G85" t="s">
         <v>126</v>
       </c>
-      <c r="H85" s="8"/>
+      <c r="H85" s="10"/>
       <c r="I85" s="4" t="s">
         <v>107</v>
       </c>
@@ -3474,19 +3491,19 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="7"/>
+      <c r="B86" s="9"/>
       <c r="C86" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="9"/>
       <c r="F86" t="s">
         <v>144</v>
       </c>
       <c r="G86" t="s">
         <v>126</v>
       </c>
-      <c r="H86" s="8"/>
+      <c r="H86" s="10"/>
       <c r="I86" s="4" t="s">
         <v>107</v>
       </c>
@@ -3495,16 +3512,16 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
+      <c r="B87" s="9"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="9"/>
       <c r="F87" t="s">
         <v>144</v>
       </c>
       <c r="G87" t="s">
         <v>126</v>
       </c>
-      <c r="H87" s="8"/>
+      <c r="H87" s="10"/>
       <c r="I87" s="4" t="s">
         <v>107</v>
       </c>
@@ -3513,19 +3530,19 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="7"/>
+      <c r="B88" s="9"/>
       <c r="C88">
         <v>12345678</v>
       </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="9"/>
       <c r="F88" t="s">
         <v>111</v>
       </c>
       <c r="G88" t="s">
         <v>126</v>
       </c>
-      <c r="H88" s="8"/>
+      <c r="H88" s="10"/>
       <c r="I88" s="4" t="s">
         <v>107</v>
       </c>
@@ -3534,23 +3551,23 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="7"/>
+      <c r="B89" s="9"/>
       <c r="C89" t="s">
         <v>74</v>
       </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="9"/>
       <c r="F89" t="s">
         <v>112</v>
       </c>
       <c r="G89" t="s">
         <v>126</v>
       </c>
-      <c r="H89" s="8"/>
+      <c r="H89" s="10"/>
       <c r="I89" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3558,58 +3575,58 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="7"/>
+      <c r="B90" s="9"/>
       <c r="C90" t="s">
         <v>39</v>
       </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="9"/>
       <c r="F90" t="s">
         <v>112</v>
       </c>
       <c r="G90" t="s">
         <v>126</v>
       </c>
-      <c r="H90" s="8"/>
+      <c r="H90" s="10"/>
       <c r="I90" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J90" s="7"/>
+      <c r="J90" s="9"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="7"/>
+      <c r="B91" s="9"/>
       <c r="C91" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="9"/>
       <c r="F91" t="s">
         <v>112</v>
       </c>
       <c r="G91" t="s">
         <v>126</v>
       </c>
-      <c r="H91" s="8"/>
+      <c r="H91" s="10"/>
       <c r="I91" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J91" s="7"/>
+      <c r="J91" s="9"/>
     </row>
     <row r="92" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C92" t="s">
         <v>76</v>
       </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7" t="s">
+      <c r="D92" s="15"/>
+      <c r="E92" s="9" t="s">
         <v>140</v>
       </c>
       <c r="F92" t="s">
@@ -3618,7 +3635,7 @@
       <c r="G92" t="s">
         <v>126</v>
       </c>
-      <c r="H92" s="8"/>
+      <c r="H92" s="10"/>
       <c r="I92" s="4" t="s">
         <v>107</v>
       </c>
@@ -3627,19 +3644,19 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="7"/>
+      <c r="B93" s="9"/>
       <c r="C93" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="9"/>
       <c r="F93" t="s">
         <v>144</v>
       </c>
       <c r="G93" t="s">
         <v>126</v>
       </c>
-      <c r="H93" s="8"/>
+      <c r="H93" s="10"/>
       <c r="I93" s="4" t="s">
         <v>107</v>
       </c>
@@ -3648,19 +3665,19 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="7"/>
+      <c r="B94" s="9"/>
       <c r="C94" t="s">
         <v>78</v>
       </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="9"/>
       <c r="F94" t="s">
         <v>144</v>
       </c>
       <c r="G94" t="s">
         <v>126</v>
       </c>
-      <c r="H94" s="8"/>
+      <c r="H94" s="10"/>
       <c r="I94" s="4" t="s">
         <v>107</v>
       </c>
@@ -3669,19 +3686,19 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="7"/>
+      <c r="B95" s="9"/>
       <c r="C95" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="9"/>
       <c r="F95" t="s">
         <v>144</v>
       </c>
       <c r="G95" t="s">
         <v>126</v>
       </c>
-      <c r="H95" s="8"/>
+      <c r="H95" s="10"/>
       <c r="I95" s="4" t="s">
         <v>107</v>
       </c>
@@ -3690,16 +3707,16 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
+      <c r="B96" s="9"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="9"/>
       <c r="F96" t="s">
         <v>144</v>
       </c>
       <c r="G96" t="s">
         <v>126</v>
       </c>
-      <c r="H96" s="8"/>
+      <c r="H96" s="10"/>
       <c r="I96" s="4" t="s">
         <v>107</v>
       </c>
@@ -3708,19 +3725,19 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="7"/>
+      <c r="B97" s="9"/>
       <c r="C97" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="9"/>
       <c r="F97" t="s">
         <v>111</v>
       </c>
       <c r="G97" t="s">
         <v>126</v>
       </c>
-      <c r="H97" s="8"/>
+      <c r="H97" s="10"/>
       <c r="I97" s="4" t="s">
         <v>107</v>
       </c>
@@ -3729,23 +3746,23 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="7"/>
+      <c r="B98" s="9"/>
       <c r="C98" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="9"/>
       <c r="F98" t="s">
         <v>112</v>
       </c>
       <c r="G98" t="s">
         <v>126</v>
       </c>
-      <c r="H98" s="8"/>
+      <c r="H98" s="10"/>
       <c r="I98" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3753,58 +3770,58 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="7"/>
+      <c r="B99" s="9"/>
       <c r="C99">
         <v>123123123</v>
       </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="9"/>
       <c r="F99" t="s">
         <v>112</v>
       </c>
       <c r="G99" t="s">
         <v>126</v>
       </c>
-      <c r="H99" s="8"/>
+      <c r="H99" s="10"/>
       <c r="I99" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J99" s="7"/>
+      <c r="J99" s="9"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="7"/>
+      <c r="B100" s="9"/>
       <c r="C100" t="s">
         <v>82</v>
       </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="9"/>
       <c r="F100" t="s">
         <v>112</v>
       </c>
       <c r="G100" t="s">
         <v>126</v>
       </c>
-      <c r="H100" s="8"/>
+      <c r="H100" s="10"/>
       <c r="I100" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J100" s="7"/>
+      <c r="J100" s="9"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C101" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7" t="s">
+      <c r="D101" s="15"/>
+      <c r="E101" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F101" t="s">
@@ -3813,7 +3830,7 @@
       <c r="G101" t="s">
         <v>126</v>
       </c>
-      <c r="H101" s="8"/>
+      <c r="H101" s="10"/>
       <c r="I101" s="4" t="s">
         <v>107</v>
       </c>
@@ -3822,19 +3839,19 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="7"/>
+      <c r="B102" s="9"/>
       <c r="C102" t="s">
         <v>21</v>
       </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="8"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="10"/>
       <c r="F102" t="s">
         <v>144</v>
       </c>
       <c r="G102" t="s">
         <v>126</v>
       </c>
-      <c r="H102" s="8"/>
+      <c r="H102" s="10"/>
       <c r="I102" s="4" t="s">
         <v>107</v>
       </c>
@@ -3843,19 +3860,19 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="7"/>
+      <c r="B103" s="9"/>
       <c r="C103" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="7"/>
-      <c r="E103" s="8"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="10"/>
       <c r="F103" t="s">
         <v>144</v>
       </c>
       <c r="G103" t="s">
         <v>126</v>
       </c>
-      <c r="H103" s="8"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="4" t="s">
         <v>107</v>
       </c>
@@ -3864,16 +3881,16 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="8"/>
+      <c r="B104" s="9"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="10"/>
       <c r="F104" t="s">
         <v>112</v>
       </c>
       <c r="G104" t="s">
         <v>126</v>
       </c>
-      <c r="H104" s="8"/>
+      <c r="H104" s="10"/>
       <c r="I104" s="5" t="s">
         <v>114</v>
       </c>
@@ -3885,19 +3902,19 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="7"/>
+      <c r="B105" s="9"/>
       <c r="C105" t="s">
         <v>23</v>
       </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="8"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="10"/>
       <c r="F105" t="s">
         <v>111</v>
       </c>
       <c r="G105" t="s">
         <v>126</v>
       </c>
-      <c r="H105" s="8"/>
+      <c r="H105" s="10"/>
       <c r="I105" s="4" t="s">
         <v>107</v>
       </c>
@@ -3906,23 +3923,23 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="7"/>
+      <c r="B106" s="9"/>
       <c r="C106" t="s">
         <v>24</v>
       </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="8"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="10"/>
       <c r="F106" t="s">
         <v>112</v>
       </c>
       <c r="G106" t="s">
         <v>126</v>
       </c>
-      <c r="H106" s="8"/>
+      <c r="H106" s="10"/>
       <c r="I106" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J106" s="7" t="s">
+      <c r="J106" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3930,80 +3947,80 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="7"/>
+      <c r="B107" s="9"/>
       <c r="C107" t="s">
         <v>25</v>
       </c>
-      <c r="D107" s="7"/>
-      <c r="E107" s="8"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="10"/>
       <c r="F107" t="s">
         <v>112</v>
       </c>
       <c r="G107" t="s">
         <v>126</v>
       </c>
-      <c r="H107" s="8"/>
+      <c r="H107" s="10"/>
       <c r="I107" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J107" s="7"/>
+      <c r="J107" s="9"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="7"/>
+      <c r="B108" s="9"/>
       <c r="C108">
         <v>123</v>
       </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="8"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="10"/>
       <c r="F108" t="s">
         <v>112</v>
       </c>
       <c r="G108" t="s">
         <v>126</v>
       </c>
-      <c r="H108" s="8"/>
+      <c r="H108" s="10"/>
       <c r="I108" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J108" s="7"/>
+      <c r="J108" s="9"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="7"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="8"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="10"/>
       <c r="F109" t="s">
         <v>112</v>
       </c>
       <c r="G109" t="s">
         <v>126</v>
       </c>
-      <c r="H109" s="8"/>
+      <c r="H109" s="10"/>
       <c r="I109" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J109" s="7"/>
+      <c r="J109" s="9"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
       </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7" t="s">
+      <c r="D110" s="15"/>
+      <c r="E110" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F110" t="s">
@@ -4012,7 +4029,7 @@
       <c r="G110" t="s">
         <v>126</v>
       </c>
-      <c r="H110" s="8"/>
+      <c r="H110" s="10"/>
       <c r="I110" s="4" t="s">
         <v>107</v>
       </c>
@@ -4021,19 +4038,19 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="7"/>
+      <c r="B111" s="9"/>
       <c r="C111" t="s">
         <v>28</v>
       </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="8"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="10"/>
       <c r="F111" t="s">
         <v>144</v>
       </c>
       <c r="G111" t="s">
         <v>126</v>
       </c>
-      <c r="H111" s="8"/>
+      <c r="H111" s="10"/>
       <c r="I111" s="4" t="s">
         <v>107</v>
       </c>
@@ -4042,19 +4059,19 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="7"/>
+      <c r="B112" s="9"/>
       <c r="C112" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="8"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="10"/>
       <c r="F112" t="s">
         <v>144</v>
       </c>
       <c r="G112" t="s">
         <v>126</v>
       </c>
-      <c r="H112" s="8"/>
+      <c r="H112" s="10"/>
       <c r="I112" s="4" t="s">
         <v>107</v>
       </c>
@@ -4063,19 +4080,19 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="7"/>
+      <c r="B113" s="9"/>
       <c r="C113" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="7"/>
-      <c r="E113" s="8"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="10"/>
       <c r="F113" t="s">
         <v>144</v>
       </c>
       <c r="G113" t="s">
         <v>126</v>
       </c>
-      <c r="H113" s="8"/>
+      <c r="H113" s="10"/>
       <c r="I113" s="4" t="s">
         <v>107</v>
       </c>
@@ -4084,19 +4101,19 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="7"/>
+      <c r="B114" s="9"/>
       <c r="C114" t="s">
         <v>31</v>
       </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="8"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="10"/>
       <c r="F114" t="s">
         <v>111</v>
       </c>
       <c r="G114" t="s">
         <v>126</v>
       </c>
-      <c r="H114" s="8"/>
+      <c r="H114" s="10"/>
       <c r="I114" s="4" t="s">
         <v>107</v>
       </c>
@@ -4105,16 +4122,16 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="8"/>
+      <c r="B115" s="9"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="10"/>
       <c r="F115" t="s">
         <v>112</v>
       </c>
       <c r="G115" t="s">
         <v>126</v>
       </c>
-      <c r="H115" s="8"/>
+      <c r="H115" s="10"/>
       <c r="I115" s="5" t="s">
         <v>114</v>
       </c>
@@ -4123,23 +4140,23 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="7"/>
+      <c r="B116" s="9"/>
       <c r="C116" t="s">
         <v>32</v>
       </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="8"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="10"/>
       <c r="F116" t="s">
         <v>112</v>
       </c>
       <c r="G116" t="s">
         <v>126</v>
       </c>
-      <c r="H116" s="8"/>
+      <c r="H116" s="10"/>
       <c r="I116" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J116" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4147,58 +4164,58 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="7"/>
+      <c r="B117" s="9"/>
       <c r="C117">
         <v>123</v>
       </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="8"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="10"/>
       <c r="F117" t="s">
         <v>112</v>
       </c>
       <c r="G117" t="s">
         <v>126</v>
       </c>
-      <c r="H117" s="8"/>
+      <c r="H117" s="10"/>
       <c r="I117" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J117" s="7"/>
+      <c r="J117" s="9"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="7"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="8"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="10"/>
       <c r="F118" t="s">
         <v>112</v>
       </c>
       <c r="G118" t="s">
         <v>126</v>
       </c>
-      <c r="H118" s="8"/>
+      <c r="H118" s="10"/>
       <c r="I118" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J118" s="7"/>
+      <c r="J118" s="9"/>
     </row>
     <row r="119" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C119" t="s">
         <v>40</v>
       </c>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7" t="s">
+      <c r="D119" s="15"/>
+      <c r="E119" s="9" t="s">
         <v>143</v>
       </c>
       <c r="F119" t="s">
@@ -4207,7 +4224,7 @@
       <c r="G119" t="s">
         <v>126</v>
       </c>
-      <c r="H119" s="8"/>
+      <c r="H119" s="10"/>
       <c r="I119" s="4" t="s">
         <v>107</v>
       </c>
@@ -4216,19 +4233,19 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="7"/>
+      <c r="B120" s="9"/>
       <c r="C120" t="s">
         <v>41</v>
       </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="9"/>
       <c r="F120" t="s">
         <v>144</v>
       </c>
       <c r="G120" t="s">
         <v>126</v>
       </c>
-      <c r="H120" s="8"/>
+      <c r="H120" s="10"/>
       <c r="I120" s="4" t="s">
         <v>107</v>
       </c>
@@ -4237,19 +4254,19 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="7"/>
+      <c r="B121" s="9"/>
       <c r="C121" t="s">
         <v>42</v>
       </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="9"/>
       <c r="F121" t="s">
         <v>144</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
       </c>
-      <c r="H121" s="8"/>
+      <c r="H121" s="10"/>
       <c r="I121" s="4" t="s">
         <v>107</v>
       </c>
@@ -4258,19 +4275,19 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="7"/>
+      <c r="B122" s="9"/>
       <c r="C122" t="s">
         <v>43</v>
       </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="9"/>
       <c r="F122" t="s">
         <v>144</v>
       </c>
       <c r="G122" t="s">
         <v>126</v>
       </c>
-      <c r="H122" s="8"/>
+      <c r="H122" s="10"/>
       <c r="I122" s="4" t="s">
         <v>107</v>
       </c>
@@ -4279,19 +4296,19 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="7"/>
+      <c r="B123" s="9"/>
       <c r="C123" t="s">
         <v>44</v>
       </c>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="9"/>
       <c r="F123" t="s">
         <v>144</v>
       </c>
       <c r="G123" t="s">
         <v>126</v>
       </c>
-      <c r="H123" s="8"/>
+      <c r="H123" s="10"/>
       <c r="I123" s="4" t="s">
         <v>107</v>
       </c>
@@ -4300,19 +4317,19 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="7"/>
+      <c r="B124" s="9"/>
       <c r="C124" t="s">
         <v>45</v>
       </c>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="9"/>
       <c r="F124" t="s">
         <v>144</v>
       </c>
       <c r="G124" t="s">
         <v>126</v>
       </c>
-      <c r="H124" s="8"/>
+      <c r="H124" s="10"/>
       <c r="I124" s="4" t="s">
         <v>107</v>
       </c>
@@ -4321,19 +4338,19 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="7"/>
+      <c r="B125" s="9"/>
       <c r="C125" t="s">
         <v>46</v>
       </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="9"/>
       <c r="F125" t="s">
         <v>144</v>
       </c>
       <c r="G125" t="s">
         <v>126</v>
       </c>
-      <c r="H125" s="8"/>
+      <c r="H125" s="10"/>
       <c r="I125" s="4" t="s">
         <v>107</v>
       </c>
@@ -4342,19 +4359,19 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="7"/>
+      <c r="B126" s="9"/>
       <c r="C126" t="s">
         <v>47</v>
       </c>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="9"/>
       <c r="F126" t="s">
         <v>144</v>
       </c>
       <c r="G126" t="s">
         <v>126</v>
       </c>
-      <c r="H126" s="8"/>
+      <c r="H126" s="10"/>
       <c r="I126" s="4" t="s">
         <v>107</v>
       </c>
@@ -4363,19 +4380,19 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="7"/>
+      <c r="B127" s="9"/>
       <c r="C127" t="s">
         <v>48</v>
       </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="9"/>
       <c r="F127" t="s">
         <v>144</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
       </c>
-      <c r="H127" s="8"/>
+      <c r="H127" s="10"/>
       <c r="I127" s="4" t="s">
         <v>107</v>
       </c>
@@ -4384,19 +4401,19 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="7"/>
+      <c r="B128" s="9"/>
       <c r="C128" t="s">
         <v>49</v>
       </c>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="9"/>
       <c r="F128" t="s">
         <v>112</v>
       </c>
       <c r="G128" t="s">
         <v>126</v>
       </c>
-      <c r="H128" s="8"/>
+      <c r="H128" s="10"/>
       <c r="I128" s="4" t="s">
         <v>107</v>
       </c>
@@ -4405,19 +4422,19 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="7"/>
+      <c r="B129" s="9"/>
       <c r="C129" t="s">
         <v>50</v>
       </c>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="9"/>
       <c r="F129" t="s">
         <v>112</v>
       </c>
       <c r="G129" t="s">
         <v>126</v>
       </c>
-      <c r="H129" s="8"/>
+      <c r="H129" s="10"/>
       <c r="I129" s="4" t="s">
         <v>107</v>
       </c>
@@ -4426,19 +4443,19 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="7"/>
+      <c r="B130" s="9"/>
       <c r="C130" t="s">
         <v>51</v>
       </c>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="9"/>
       <c r="F130" t="s">
         <v>112</v>
       </c>
       <c r="G130" t="s">
         <v>126</v>
       </c>
-      <c r="H130" s="8"/>
+      <c r="H130" s="10"/>
       <c r="I130" s="4" t="s">
         <v>107</v>
       </c>
@@ -4447,19 +4464,19 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="7"/>
+      <c r="B131" s="9"/>
       <c r="C131" t="s">
         <v>52</v>
       </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="9"/>
       <c r="F131" t="s">
         <v>112</v>
       </c>
       <c r="G131" t="s">
         <v>126</v>
       </c>
-      <c r="H131" s="8"/>
+      <c r="H131" s="10"/>
       <c r="I131" s="4" t="s">
         <v>107</v>
       </c>
@@ -4468,16 +4485,16 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
+      <c r="B132" s="9"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="9"/>
       <c r="F132" t="s">
         <v>112</v>
       </c>
       <c r="G132" t="s">
         <v>126</v>
       </c>
-      <c r="H132" s="8"/>
+      <c r="H132" s="10"/>
       <c r="I132" s="5" t="s">
         <v>114</v>
       </c>
@@ -4489,19 +4506,19 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="7"/>
+      <c r="B133" s="9"/>
       <c r="C133" t="s">
         <v>53</v>
       </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="9"/>
       <c r="F133" t="s">
         <v>112</v>
       </c>
       <c r="G133" t="s">
         <v>126</v>
       </c>
-      <c r="H133" s="8"/>
+      <c r="H133" s="10"/>
       <c r="I133" s="4" t="s">
         <v>107</v>
       </c>
@@ -4510,19 +4527,19 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="7"/>
+      <c r="B134" s="9"/>
       <c r="C134" t="s">
         <v>54</v>
       </c>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="9"/>
       <c r="F134" t="s">
         <v>112</v>
       </c>
       <c r="G134" t="s">
         <v>126</v>
       </c>
-      <c r="H134" s="8"/>
+      <c r="H134" s="10"/>
       <c r="I134" s="4" t="s">
         <v>107</v>
       </c>
@@ -4531,19 +4548,19 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="7"/>
+      <c r="B135" s="9"/>
       <c r="C135" t="s">
         <v>55</v>
       </c>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="9"/>
       <c r="F135" t="s">
         <v>112</v>
       </c>
       <c r="G135" t="s">
         <v>126</v>
       </c>
-      <c r="H135" s="8"/>
+      <c r="H135" s="10"/>
       <c r="I135" s="4" t="s">
         <v>107</v>
       </c>
@@ -4552,36 +4569,32 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="7"/>
+      <c r="B136" s="9"/>
       <c r="C136" t="s">
         <v>56</v>
       </c>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="9"/>
       <c r="F136" t="s">
         <v>112</v>
       </c>
       <c r="G136" t="s">
         <v>126</v>
       </c>
-      <c r="H136" s="8"/>
+      <c r="H136" s="10"/>
       <c r="I136" s="4" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E101:E109"/>
-    <mergeCell ref="E110:E118"/>
-    <mergeCell ref="E119:E136"/>
-    <mergeCell ref="J106:J109"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H136"/>
-    <mergeCell ref="E6:E14"/>
-    <mergeCell ref="E15:E23"/>
-    <mergeCell ref="E24:E32"/>
-    <mergeCell ref="E33:E50"/>
-    <mergeCell ref="E51:E69"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="E79:E84"/>
+    <mergeCell ref="E85:E91"/>
+    <mergeCell ref="E92:E100"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="J116:J118"/>
     <mergeCell ref="B6:B14"/>
     <mergeCell ref="B15:B23"/>
     <mergeCell ref="B24:B32"/>
@@ -4594,19 +4607,23 @@
     <mergeCell ref="B70:B78"/>
     <mergeCell ref="B79:B84"/>
     <mergeCell ref="B85:B91"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="E101:E109"/>
+    <mergeCell ref="E110:E118"/>
+    <mergeCell ref="E119:E136"/>
+    <mergeCell ref="J106:J109"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H136"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="E15:E23"/>
+    <mergeCell ref="E24:E32"/>
+    <mergeCell ref="E33:E50"/>
+    <mergeCell ref="E51:E69"/>
     <mergeCell ref="F29:F32"/>
     <mergeCell ref="F75:F78"/>
     <mergeCell ref="J81:J83"/>
     <mergeCell ref="J89:J91"/>
-    <mergeCell ref="B92:B100"/>
     <mergeCell ref="E70:E78"/>
-    <mergeCell ref="E79:E84"/>
-    <mergeCell ref="E85:E91"/>
-    <mergeCell ref="E92:E100"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="J116:J118"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="J21:J23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" xr:uid="{1BDD3FEE-8751-4F6F-91AE-D7A7174FB376}"/>
@@ -4631,14 +4648,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64194834-980D-4E77-9030-BA62A4FF0CDB}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="86.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="64.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4670,17 +4691,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E2" t="s">
@@ -4689,7 +4710,7 @@
       <c r="F2" t="s">
         <v>126</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="11" t="s">
         <v>165</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -4703,8 +4724,8 @@
       <c r="B3" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E3" t="s">
@@ -4713,7 +4734,7 @@
       <c r="F3" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>166</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -4727,15 +4748,15 @@
       <c r="B4" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
       <c r="E4" t="s">
         <v>153</v>
       </c>
       <c r="F4" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="4" t="s">
         <v>107</v>
       </c>
@@ -4747,15 +4768,15 @@
       <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
       <c r="E5" t="s">
         <v>154</v>
       </c>
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="4" t="s">
         <v>107</v>
       </c>
@@ -4767,15 +4788,15 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" t="s">
         <v>155</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="4" t="s">
         <v>107</v>
       </c>
@@ -4787,15 +4808,15 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" t="s">
         <v>156</v>
       </c>
       <c r="F7" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="4" t="s">
         <v>107</v>
       </c>
@@ -4807,15 +4828,15 @@
       <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" t="s">
         <v>157</v>
       </c>
       <c r="F8" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="4" t="s">
         <v>107</v>
       </c>
@@ -4827,15 +4848,15 @@
       <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" t="s">
         <v>158</v>
       </c>
       <c r="F9" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="4" t="s">
         <v>107</v>
       </c>
@@ -4847,15 +4868,15 @@
       <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" t="s">
         <v>153</v>
       </c>
       <c r="F10" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="4" t="s">
         <v>107</v>
       </c>
@@ -4867,15 +4888,15 @@
       <c r="B11" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" t="s">
         <v>154</v>
       </c>
       <c r="F11" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="4" t="s">
         <v>107</v>
       </c>
@@ -4887,15 +4908,15 @@
       <c r="B12" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" t="s">
         <v>155</v>
       </c>
       <c r="F12" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="4" t="s">
         <v>107</v>
       </c>
@@ -4907,15 +4928,15 @@
       <c r="B13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" t="s">
         <v>156</v>
       </c>
       <c r="F13" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="4" t="s">
         <v>107</v>
       </c>
@@ -4927,15 +4948,15 @@
       <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" t="s">
         <v>159</v>
       </c>
       <c r="F14" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="4" t="s">
         <v>107</v>
       </c>
@@ -4947,15 +4968,15 @@
       <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" t="s">
         <v>152</v>
       </c>
       <c r="F15" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="4" t="s">
         <v>107</v>
       </c>
@@ -4967,15 +4988,15 @@
       <c r="B16" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" t="s">
         <v>153</v>
       </c>
       <c r="F16" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="4" t="s">
         <v>107</v>
       </c>
@@ -4987,15 +5008,15 @@
       <c r="B17" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="E17" t="s">
         <v>154</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="4" t="s">
         <v>107</v>
       </c>
@@ -5007,15 +5028,15 @@
       <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" t="s">
         <v>155</v>
       </c>
       <c r="F18" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="4" t="s">
         <v>107</v>
       </c>
@@ -5027,15 +5048,15 @@
       <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
       <c r="E19" t="s">
         <v>156</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="4" t="s">
         <v>107</v>
       </c>
@@ -5047,15 +5068,15 @@
       <c r="B20" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" t="s">
         <v>157</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="4" t="s">
         <v>107</v>
       </c>
@@ -5067,15 +5088,15 @@
       <c r="B21" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
       <c r="E21" t="s">
         <v>158</v>
       </c>
       <c r="F21" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="8"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="4" t="s">
         <v>107</v>
       </c>
@@ -5087,15 +5108,15 @@
       <c r="B22" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" t="s">
         <v>160</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="8"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="4" t="s">
         <v>107</v>
       </c>

--- a/src/test/java/GDS Tech Challenge.xlsx
+++ b/src/test/java/GDS Tech Challenge.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECQ1046\GDS Tech Challenge\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5E5B8-337B-4F7E-B2E3-B20F336D0DF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7260BA-BE84-4505-AAA9-9037B1A381D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8580" xr2:uid="{90A3D36A-1EF0-4D01-A50A-028479CF5E69}"/>
   </bookViews>
   <sheets>
-    <sheet name="Eligibility" sheetId="1" r:id="rId1"/>
-    <sheet name="Contact Details" sheetId="2" r:id="rId2"/>
-    <sheet name="Form Submission" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" r:id="rId1"/>
+    <sheet name="Eligibility" sheetId="1" r:id="rId2"/>
+    <sheet name="Contact Details" sheetId="2" r:id="rId3"/>
+    <sheet name="Form Submission" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="178">
   <si>
     <t>Testcase</t>
   </si>
@@ -936,12 +937,217 @@
   <si>
     <t>`@FormSubmission @Functional @Negative @Scenarios</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In Userstory 3, we are testing for end to end scenarios where we simulate an applicant logging in to their CorpPass accounts, applying for a grant, and submitting their application. We test for each section in the grant application process where we separate each possible scenario for each section into </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complete with valid data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complete with invalid data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incomplete sections</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empty sections</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. If the applicant is Complete with valid data for every section, then the applicant is directed to a summary page to review their answers and submit the application. They would be given a reference ID which they can use to track the progress of their application at the CorpPass landing page. If the applicant has any invalid or incomplete sections and tries to submit their application, they will be redirected to the section with invalid or incomplete data to rectify it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We notice some defects in Userstory 2, especially since it is the section with multiple open-ended questions regarding the applicant’s personal data and company’s data. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> test cases revolves mainly around having a lack of error message when no data is being sent for mandatory questions. When the applicant simply ignores the question, no error is shown to them. Only when the applicant enters some data and subsequently delete it entirely, will we see an error message regarding an empty field. This could prove to be undesirable as the applicant may assume the field can be ignored without the error message. Some testcases have been </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skipped</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as well, for similar reason. For some fields where we expect constraints regarding input data or error messages, none are found. For example, under </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Main Contact Person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sub-section, when we enter only number or special characters for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, there are no error messages. This could be detrimental as reviewers of the grant applications may have to put in extra effort to contact applicant’s to rectify inaccurate data. Ideally, we should have constraints on such fields or having error messages to inform the applicant’s of their error.</t>
+    </r>
+  </si>
+  <si>
+    <t>Userstory 1</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t>Userstory 2</t>
+  </si>
+  <si>
+    <t>Userstory 3</t>
+  </si>
+  <si>
+    <t>Total results</t>
+  </si>
+  <si>
+    <t>In Userstory 1 tests for positive scenarios where the user answers ‘Yes’ for all the questions under the Eligibility section, and for ‘No’ answers for each of the same questions. On answering ‘No’ to any question, a warning message is shown with a link to redirect applicants to a FAQ page in a separate tab. We will also test for saving and refreshing the page and validating that the answers remain the same, and navigating to the next section.</t>
+  </si>
+  <si>
+    <t>This test result document is done to surmise the test cases and its results for the GDS Tech Challenge assessment project. Each userstory has been seperated in an individual sheet which goes into the specifics of each test step, expected results, and its status. A visualisation of the total results can be found below, as well as each user story's summaries</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,6 +1195,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1063,7 +1277,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5"/>
@@ -1072,15 +1286,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1088,7 +1293,22 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1116,6 +1336,3704 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Userstory 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-32B0-4C44-B20A-4DB922905897}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-32B0-4C44-B20A-4DB922905897}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-32B0-4C44-B20A-4DB922905897}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$D$31:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$31:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C18E-48D4-A2F7-92D7FD23D3DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Userstory 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B0D7-49EF-86D9-46E3B5013EAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B0D7-49EF-86D9-46E3B5013EAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B0D7-49EF-86D9-46E3B5013EAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$D$55:$D$57</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$55:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8988-4D5E-B7E2-F57CC7571ED4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Userstory 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-28F2-4872-AE94-89C152B0467B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-28F2-4872-AE94-89C152B0467B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-28F2-4872-AE94-89C152B0467B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$D$74:$D$76</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$74:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AAA-4B9B-9588-2186BEF56DF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-SG" baseline="0"/>
+              <a:t> results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-SG"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4F5D-4E32-A850-36739B470220}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4F5D-4E32-A850-36739B470220}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4F5D-4E32-A850-36739B470220}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$B$8:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$8:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A247-4907-915D-4C1046E5BDE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107632</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25EC11E-25D7-48BB-A7C0-67A6DE097999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>221534</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25507</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE272094-83E5-44F9-B6E8-FE1D77657F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>498157</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>126682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>168937</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>149332</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B454170D-5951-4738-A458-4EDFE3014780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>305752</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>153352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>478155</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D35B270-5917-44EF-BB15-16344D95EBD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1414,12 +5332,725 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB30997-E6B7-4C60-BDEC-C66A4C58DDE7}">
+  <dimension ref="A1:X76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8">
+        <f>E31+E55+E74</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9">
+        <f>E32+E56+E75</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10">
+        <f>E33+E57+E76</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D30" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31">
+        <f>COUNTIF(Eligibility!$I$2:$I$7,"PASSED")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D32" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32">
+        <f>COUNTIF(Eligibility!$I$2:$I$7,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D33" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33">
+        <f>COUNTIF(Eligibility!$I$2:$I$7,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D54" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D55" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55">
+        <f>COUNTIF('Contact Details'!$I$2:$I$136,"PASSED")</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D56" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56">
+        <f>COUNTIF('Contact Details'!$I$2:$I$136,"FAILED")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D57" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57">
+        <f>COUNTIF('Contact Details'!$I$2:$I$136,"SKIPPED")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D73" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D74" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74">
+        <f>COUNTIF('Form Submission'!$H$2:$H$22,"PASSED")</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D75" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75">
+        <f>COUNTIF('Form Submission'!$H$2:$H$22,"FAILED")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D76" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76">
+        <f>COUNTIF('Form Submission'!$H$2:$H$22,"SKIPPED")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A41:X49"/>
+    <mergeCell ref="A1:X2"/>
+    <mergeCell ref="A64:X68"/>
+    <mergeCell ref="A22:X26"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D73:E73"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97154C7-3270-4DCD-8D9B-25C6626CA986}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1474,19 +6105,19 @@
       <c r="C2" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>127</v>
       </c>
       <c r="G2" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="9" t="s">
         <v>161</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1503,15 +6134,15 @@
       <c r="C3" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>162</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1528,13 +6159,13 @@
       <c r="C4" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="4" t="s">
         <v>107</v>
       </c>
@@ -1549,13 +6180,13 @@
       <c r="C5" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="4" t="s">
         <v>107</v>
       </c>
@@ -1570,13 +6201,13 @@
       <c r="C6" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="4" t="s">
         <v>107</v>
       </c>
@@ -1591,13 +6222,13 @@
       <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="4" t="s">
         <v>107</v>
       </c>
@@ -1613,13 +6244,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153888F5-D56F-4D50-904F-507F2086E37E}">
   <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1675,7 +6306,7 @@
       <c r="C2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1687,7 +6318,7 @@
       <c r="G2" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="13" t="s">
         <v>163</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1704,7 +6335,7 @@
       <c r="C3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="7" t="s">
         <v>129</v>
       </c>
@@ -1714,7 +6345,7 @@
       <c r="G3" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="4" t="s">
         <v>107</v>
       </c>
@@ -1729,7 +6360,7 @@
       <c r="C4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="7" t="s">
         <v>130</v>
       </c>
@@ -1739,7 +6370,7 @@
       <c r="G4" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="4" t="s">
         <v>107</v>
       </c>
@@ -1754,7 +6385,7 @@
       <c r="C5" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="7" t="s">
         <v>131</v>
       </c>
@@ -1764,7 +6395,7 @@
       <c r="G5" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="4" t="s">
         <v>107</v>
       </c>
@@ -1773,14 +6404,14 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="11" t="s">
         <v>132</v>
       </c>
       <c r="F6" t="s">
@@ -1789,7 +6420,7 @@
       <c r="G6" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="15" t="s">
         <v>164</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1800,19 +6431,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="11"/>
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="15"/>
       <c r="F7" t="s">
         <v>144</v>
       </c>
       <c r="G7" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="4" t="s">
         <v>107</v>
       </c>
@@ -1821,19 +6452,19 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="11"/>
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="15"/>
       <c r="F8" t="s">
         <v>144</v>
       </c>
       <c r="G8" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="4" t="s">
         <v>107</v>
       </c>
@@ -1842,16 +6473,16 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="15"/>
       <c r="F9" t="s">
         <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="5" t="s">
         <v>114</v>
       </c>
@@ -1863,19 +6494,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15"/>
       <c r="F10" t="s">
         <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="4" t="s">
         <v>107</v>
       </c>
@@ -1884,23 +6515,23 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="11"/>
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="15"/>
       <c r="F11" t="s">
         <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1908,80 +6539,80 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="11"/>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="15"/>
       <c r="F12" t="s">
         <v>110</v>
       </c>
       <c r="G12" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="11"/>
       <c r="C13">
         <v>123</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="15"/>
       <c r="F13" t="s">
         <v>110</v>
       </c>
       <c r="G13" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="15"/>
       <c r="F14" t="s">
         <v>110</v>
       </c>
       <c r="G14" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="11" t="s">
         <v>133</v>
       </c>
       <c r="F15" t="s">
@@ -1990,7 +6621,7 @@
       <c r="G15" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="4" t="s">
         <v>107</v>
       </c>
@@ -1999,19 +6630,19 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="11"/>
       <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="15"/>
       <c r="F16" t="s">
         <v>144</v>
       </c>
       <c r="G16" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="4" t="s">
         <v>107</v>
       </c>
@@ -2020,19 +6651,19 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="11"/>
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="15"/>
       <c r="F17" t="s">
         <v>144</v>
       </c>
       <c r="G17" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="4" t="s">
         <v>107</v>
       </c>
@@ -2041,19 +6672,19 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="11"/>
       <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="15"/>
       <c r="F18" t="s">
         <v>144</v>
       </c>
       <c r="G18" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="4" t="s">
         <v>107</v>
       </c>
@@ -2062,19 +6693,19 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="11"/>
       <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="15"/>
       <c r="F19" t="s">
         <v>111</v>
       </c>
       <c r="G19" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="4" t="s">
         <v>107</v>
       </c>
@@ -2083,16 +6714,16 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="15"/>
       <c r="F20" t="s">
         <v>110</v>
       </c>
       <c r="G20" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="5" t="s">
         <v>114</v>
       </c>
@@ -2104,23 +6735,23 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="11"/>
       <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="15"/>
       <c r="F21" t="s">
         <v>110</v>
       </c>
       <c r="G21" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2128,58 +6759,58 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="11"/>
       <c r="C22">
         <v>123</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="15"/>
       <c r="F22" t="s">
         <v>110</v>
       </c>
       <c r="G22" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="10"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="15"/>
       <c r="F23" t="s">
         <v>110</v>
       </c>
       <c r="G23" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C24">
         <v>91239123</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="11" t="s">
         <v>134</v>
       </c>
       <c r="F24" t="s">
@@ -2188,7 +6819,7 @@
       <c r="G24" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="4" t="s">
         <v>107</v>
       </c>
@@ -2197,19 +6828,19 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="11"/>
       <c r="C25">
         <v>912391234</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="10"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="15"/>
       <c r="F25" t="s">
         <v>111</v>
       </c>
       <c r="G25" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="4" t="s">
         <v>107</v>
       </c>
@@ -2218,19 +6849,19 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="11"/>
       <c r="C26">
         <v>9123912</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="15"/>
       <c r="F26" t="s">
         <v>112</v>
       </c>
       <c r="G26" t="s">
         <v>126</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="4" t="s">
         <v>107</v>
       </c>
@@ -2239,19 +6870,19 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="11"/>
       <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="15"/>
       <c r="F27" t="s">
         <v>111</v>
       </c>
       <c r="G27" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="4" t="s">
         <v>107</v>
       </c>
@@ -2260,16 +6891,16 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="15"/>
       <c r="F28" t="s">
         <v>110</v>
       </c>
       <c r="G28" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="5" t="s">
         <v>114</v>
       </c>
@@ -2281,19 +6912,19 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="11"/>
       <c r="C29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="11" t="s">
         <v>113</v>
       </c>
       <c r="G29" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="4" t="s">
         <v>107</v>
       </c>
@@ -2302,17 +6933,17 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="11"/>
       <c r="C30" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="11"/>
       <c r="G30" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="4" t="s">
         <v>107</v>
       </c>
@@ -2321,17 +6952,17 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="11"/>
       <c r="C31" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="11"/>
       <c r="G31" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="4" t="s">
         <v>107</v>
       </c>
@@ -2340,17 +6971,17 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="11"/>
       <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="9"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="11"/>
       <c r="G32" t="s">
         <v>126</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="4" t="s">
         <v>107</v>
       </c>
@@ -2359,14 +6990,14 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="11" t="s">
         <v>135</v>
       </c>
       <c r="F33" t="s">
@@ -2375,7 +7006,7 @@
       <c r="G33" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="4" t="s">
         <v>107</v>
       </c>
@@ -2384,19 +7015,19 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="11"/>
       <c r="C34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="11"/>
       <c r="F34" t="s">
         <v>144</v>
       </c>
       <c r="G34" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="4" t="s">
         <v>107</v>
       </c>
@@ -2405,19 +7036,19 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="11"/>
       <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="9"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="11"/>
       <c r="F35" t="s">
         <v>144</v>
       </c>
       <c r="G35" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="10"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="4" t="s">
         <v>107</v>
       </c>
@@ -2426,19 +7057,19 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="11"/>
       <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="9"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="11"/>
       <c r="F36" t="s">
         <v>144</v>
       </c>
       <c r="G36" t="s">
         <v>126</v>
       </c>
-      <c r="H36" s="10"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="4" t="s">
         <v>107</v>
       </c>
@@ -2447,19 +7078,19 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="11"/>
       <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="9"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="11"/>
       <c r="F37" t="s">
         <v>144</v>
       </c>
       <c r="G37" t="s">
         <v>126</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="4" t="s">
         <v>107</v>
       </c>
@@ -2468,19 +7099,19 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="11"/>
       <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="11"/>
       <c r="F38" t="s">
         <v>144</v>
       </c>
       <c r="G38" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="15"/>
       <c r="I38" s="4" t="s">
         <v>107</v>
       </c>
@@ -2489,19 +7120,19 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="11"/>
       <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="9"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="11"/>
       <c r="F39" t="s">
         <v>144</v>
       </c>
       <c r="G39" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="10"/>
+      <c r="H39" s="15"/>
       <c r="I39" s="4" t="s">
         <v>107</v>
       </c>
@@ -2510,19 +7141,19 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="11"/>
       <c r="C40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="9"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="11"/>
       <c r="F40" t="s">
         <v>144</v>
       </c>
       <c r="G40" t="s">
         <v>126</v>
       </c>
-      <c r="H40" s="10"/>
+      <c r="H40" s="15"/>
       <c r="I40" s="4" t="s">
         <v>107</v>
       </c>
@@ -2531,19 +7162,19 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="11"/>
       <c r="C41" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="9"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="11"/>
       <c r="F41" t="s">
         <v>144</v>
       </c>
       <c r="G41" t="s">
         <v>126</v>
       </c>
-      <c r="H41" s="10"/>
+      <c r="H41" s="15"/>
       <c r="I41" s="4" t="s">
         <v>107</v>
       </c>
@@ -2552,19 +7183,19 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="11"/>
       <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="9"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="11"/>
       <c r="F42" t="s">
         <v>112</v>
       </c>
       <c r="G42" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="10"/>
+      <c r="H42" s="15"/>
       <c r="I42" s="4" t="s">
         <v>107</v>
       </c>
@@ -2573,19 +7204,19 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="11"/>
       <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="9"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="11"/>
       <c r="F43" t="s">
         <v>112</v>
       </c>
       <c r="G43" t="s">
         <v>126</v>
       </c>
-      <c r="H43" s="10"/>
+      <c r="H43" s="15"/>
       <c r="I43" s="4" t="s">
         <v>107</v>
       </c>
@@ -2594,19 +7225,19 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="11"/>
       <c r="C44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="9"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="11"/>
       <c r="F44" t="s">
         <v>112</v>
       </c>
       <c r="G44" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="10"/>
+      <c r="H44" s="15"/>
       <c r="I44" s="4" t="s">
         <v>107</v>
       </c>
@@ -2615,19 +7246,19 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="11"/>
       <c r="C45" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="9"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="11"/>
       <c r="F45" t="s">
         <v>112</v>
       </c>
       <c r="G45" t="s">
         <v>126</v>
       </c>
-      <c r="H45" s="10"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="4" t="s">
         <v>107</v>
       </c>
@@ -2636,16 +7267,16 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="11"/>
       <c r="F46" t="s">
         <v>112</v>
       </c>
       <c r="G46" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="10"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="5" t="s">
         <v>114</v>
       </c>
@@ -2657,19 +7288,19 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="11"/>
       <c r="C47" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="9"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="11"/>
       <c r="F47" t="s">
         <v>112</v>
       </c>
       <c r="G47" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="10"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="4" t="s">
         <v>107</v>
       </c>
@@ -2678,19 +7309,19 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="11"/>
       <c r="C48" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="9"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="11"/>
       <c r="F48" t="s">
         <v>112</v>
       </c>
       <c r="G48" t="s">
         <v>126</v>
       </c>
-      <c r="H48" s="10"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="4" t="s">
         <v>107</v>
       </c>
@@ -2699,19 +7330,19 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="11"/>
       <c r="C49" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="9"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="11"/>
       <c r="F49" t="s">
         <v>112</v>
       </c>
       <c r="G49" t="s">
         <v>126</v>
       </c>
-      <c r="H49" s="10"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="4" t="s">
         <v>107</v>
       </c>
@@ -2720,19 +7351,19 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="11"/>
       <c r="C50" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="9"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="11"/>
       <c r="F50" t="s">
         <v>112</v>
       </c>
       <c r="G50" t="s">
         <v>126</v>
       </c>
-      <c r="H50" s="10"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="4" t="s">
         <v>107</v>
       </c>
@@ -2741,14 +7372,14 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="17"/>
+      <c r="E51" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F51" t="s">
@@ -2757,7 +7388,7 @@
       <c r="G51" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="10"/>
+      <c r="H51" s="15"/>
       <c r="I51" s="4" t="s">
         <v>107</v>
       </c>
@@ -2766,19 +7397,19 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="11"/>
       <c r="C52" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="9"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="11"/>
       <c r="F52" t="s">
         <v>144</v>
       </c>
       <c r="G52" t="s">
         <v>126</v>
       </c>
-      <c r="H52" s="10"/>
+      <c r="H52" s="15"/>
       <c r="I52" s="4" t="s">
         <v>107</v>
       </c>
@@ -2787,19 +7418,19 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="9"/>
+      <c r="B53" s="11"/>
       <c r="C53" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="9"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="11"/>
       <c r="F53" t="s">
         <v>144</v>
       </c>
       <c r="G53" t="s">
         <v>126</v>
       </c>
-      <c r="H53" s="10"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="4" t="s">
         <v>107</v>
       </c>
@@ -2808,19 +7439,19 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="11"/>
       <c r="C54" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="9"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="11"/>
       <c r="F54" t="s">
         <v>144</v>
       </c>
       <c r="G54" t="s">
         <v>126</v>
       </c>
-      <c r="H54" s="10"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="4" t="s">
         <v>107</v>
       </c>
@@ -2829,19 +7460,19 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="9"/>
+      <c r="B55" s="11"/>
       <c r="C55" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="9"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="11"/>
       <c r="F55" t="s">
         <v>144</v>
       </c>
       <c r="G55" t="s">
         <v>126</v>
       </c>
-      <c r="H55" s="10"/>
+      <c r="H55" s="15"/>
       <c r="I55" s="4" t="s">
         <v>107</v>
       </c>
@@ -2850,19 +7481,19 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="9"/>
+      <c r="B56" s="11"/>
       <c r="C56" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="9"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="11"/>
       <c r="F56" t="s">
         <v>144</v>
       </c>
       <c r="G56" t="s">
         <v>126</v>
       </c>
-      <c r="H56" s="10"/>
+      <c r="H56" s="15"/>
       <c r="I56" s="4" t="s">
         <v>107</v>
       </c>
@@ -2871,19 +7502,19 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="11"/>
       <c r="C57" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="9"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="11"/>
       <c r="F57" t="s">
         <v>144</v>
       </c>
       <c r="G57" t="s">
         <v>126</v>
       </c>
-      <c r="H57" s="10"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="4" t="s">
         <v>107</v>
       </c>
@@ -2892,19 +7523,19 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="11"/>
       <c r="C58" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="9"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="11"/>
       <c r="F58" t="s">
         <v>144</v>
       </c>
       <c r="G58" t="s">
         <v>126</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="H58" s="15"/>
       <c r="I58" s="4" t="s">
         <v>107</v>
       </c>
@@ -2913,19 +7544,19 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="11"/>
       <c r="C59" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="9"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="11"/>
       <c r="F59" t="s">
         <v>144</v>
       </c>
       <c r="G59" t="s">
         <v>126</v>
       </c>
-      <c r="H59" s="10"/>
+      <c r="H59" s="15"/>
       <c r="I59" s="4" t="s">
         <v>107</v>
       </c>
@@ -2934,16 +7565,16 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="9"/>
+      <c r="B60" s="11"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="11"/>
       <c r="F60" t="s">
         <v>144</v>
       </c>
       <c r="G60" t="s">
         <v>126</v>
       </c>
-      <c r="H60" s="10"/>
+      <c r="H60" s="15"/>
       <c r="I60" s="4" t="s">
         <v>107</v>
       </c>
@@ -2952,19 +7583,19 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="11"/>
       <c r="C61" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="9"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="11"/>
       <c r="F61" t="s">
         <v>112</v>
       </c>
       <c r="G61" t="s">
         <v>126</v>
       </c>
-      <c r="H61" s="10"/>
+      <c r="H61" s="15"/>
       <c r="I61" s="4" t="s">
         <v>107</v>
       </c>
@@ -2973,19 +7604,19 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="11"/>
       <c r="C62" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="9"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="11"/>
       <c r="F62" t="s">
         <v>112</v>
       </c>
       <c r="G62" t="s">
         <v>126</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="H62" s="15"/>
       <c r="I62" s="4" t="s">
         <v>107</v>
       </c>
@@ -2994,19 +7625,19 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="11"/>
       <c r="C63" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="9"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="11"/>
       <c r="F63" t="s">
         <v>112</v>
       </c>
       <c r="G63" t="s">
         <v>126</v>
       </c>
-      <c r="H63" s="10"/>
+      <c r="H63" s="15"/>
       <c r="I63" s="4" t="s">
         <v>107</v>
       </c>
@@ -3015,19 +7646,19 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="11"/>
       <c r="C64" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="9"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="11"/>
       <c r="F64" t="s">
         <v>112</v>
       </c>
       <c r="G64" t="s">
         <v>126</v>
       </c>
-      <c r="H64" s="10"/>
+      <c r="H64" s="15"/>
       <c r="I64" s="4" t="s">
         <v>107</v>
       </c>
@@ -3036,19 +7667,19 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="11"/>
       <c r="C65" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="9"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="11"/>
       <c r="F65" t="s">
         <v>112</v>
       </c>
       <c r="G65" t="s">
         <v>126</v>
       </c>
-      <c r="H65" s="10"/>
+      <c r="H65" s="15"/>
       <c r="I65" s="4" t="s">
         <v>107</v>
       </c>
@@ -3057,19 +7688,19 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="11"/>
       <c r="C66" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="9"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="11"/>
       <c r="F66" t="s">
         <v>112</v>
       </c>
       <c r="G66" t="s">
         <v>126</v>
       </c>
-      <c r="H66" s="10"/>
+      <c r="H66" s="15"/>
       <c r="I66" s="4" t="s">
         <v>107</v>
       </c>
@@ -3078,19 +7709,19 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="11"/>
       <c r="C67" t="s">
         <v>54</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="9"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="11"/>
       <c r="F67" t="s">
         <v>112</v>
       </c>
       <c r="G67" t="s">
         <v>126</v>
       </c>
-      <c r="H67" s="10"/>
+      <c r="H67" s="15"/>
       <c r="I67" s="4" t="s">
         <v>107</v>
       </c>
@@ -3099,19 +7730,19 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="11"/>
       <c r="C68" t="s">
         <v>55</v>
       </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="9"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="11"/>
       <c r="F68" t="s">
         <v>112</v>
       </c>
       <c r="G68" t="s">
         <v>126</v>
       </c>
-      <c r="H68" s="10"/>
+      <c r="H68" s="15"/>
       <c r="I68" s="4" t="s">
         <v>107</v>
       </c>
@@ -3120,19 +7751,19 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="11"/>
       <c r="C69" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="9"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="11"/>
       <c r="F69" t="s">
         <v>112</v>
       </c>
       <c r="G69" t="s">
         <v>126</v>
       </c>
-      <c r="H69" s="10"/>
+      <c r="H69" s="15"/>
       <c r="I69" s="4" t="s">
         <v>107</v>
       </c>
@@ -3141,14 +7772,14 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C70">
         <v>650320</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="9" t="s">
+      <c r="D70" s="17"/>
+      <c r="E70" s="11" t="s">
         <v>137</v>
       </c>
       <c r="F70" t="s">
@@ -3157,7 +7788,7 @@
       <c r="G70" t="s">
         <v>126</v>
       </c>
-      <c r="H70" s="10"/>
+      <c r="H70" s="15"/>
       <c r="I70" s="4" t="s">
         <v>107</v>
       </c>
@@ -3166,19 +7797,19 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="9"/>
+      <c r="B71" s="11"/>
       <c r="C71">
         <v>6503201</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="9"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="11"/>
       <c r="F71" t="s">
         <v>111</v>
       </c>
       <c r="G71" t="s">
         <v>126</v>
       </c>
-      <c r="H71" s="10"/>
+      <c r="H71" s="15"/>
       <c r="I71" s="4" t="s">
         <v>107</v>
       </c>
@@ -3187,19 +7818,19 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="11"/>
       <c r="C72">
         <v>65032</v>
       </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="9"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="11"/>
       <c r="F72" t="s">
         <v>112</v>
       </c>
       <c r="G72" t="s">
         <v>126</v>
       </c>
-      <c r="H72" s="10"/>
+      <c r="H72" s="15"/>
       <c r="I72" s="4" t="s">
         <v>107</v>
       </c>
@@ -3208,19 +7839,19 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="9"/>
+      <c r="B73" s="11"/>
       <c r="C73" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="9"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="11"/>
       <c r="F73" t="s">
         <v>111</v>
       </c>
       <c r="G73" t="s">
         <v>126</v>
       </c>
-      <c r="H73" s="10"/>
+      <c r="H73" s="15"/>
       <c r="I73" s="4" t="s">
         <v>107</v>
       </c>
@@ -3229,16 +7860,16 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="9"/>
+      <c r="B74" s="11"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="11"/>
       <c r="F74" t="s">
         <v>112</v>
       </c>
       <c r="G74" t="s">
         <v>126</v>
       </c>
-      <c r="H74" s="10"/>
+      <c r="H74" s="15"/>
       <c r="I74" s="5" t="s">
         <v>114</v>
       </c>
@@ -3250,19 +7881,19 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="9"/>
+      <c r="B75" s="11"/>
       <c r="C75" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9" t="s">
+      <c r="D75" s="17"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11" t="s">
         <v>113</v>
       </c>
       <c r="G75" t="s">
         <v>126</v>
       </c>
-      <c r="H75" s="10"/>
+      <c r="H75" s="15"/>
       <c r="I75" s="4" t="s">
         <v>107</v>
       </c>
@@ -3271,17 +7902,17 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="11"/>
       <c r="C76" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
       <c r="G76" t="s">
         <v>126</v>
       </c>
-      <c r="H76" s="10"/>
+      <c r="H76" s="15"/>
       <c r="I76" s="4" t="s">
         <v>107</v>
       </c>
@@ -3290,17 +7921,17 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="11"/>
       <c r="C77" t="s">
         <v>39</v>
       </c>
-      <c r="D77" s="15"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
       <c r="G77" t="s">
         <v>126</v>
       </c>
-      <c r="H77" s="10"/>
+      <c r="H77" s="15"/>
       <c r="I77" s="4" t="s">
         <v>107</v>
       </c>
@@ -3309,17 +7940,17 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="11"/>
       <c r="C78" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
       <c r="G78" t="s">
         <v>126</v>
       </c>
-      <c r="H78" s="10"/>
+      <c r="H78" s="15"/>
       <c r="I78" s="4" t="s">
         <v>107</v>
       </c>
@@ -3328,14 +7959,14 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D79" s="15"/>
-      <c r="E79" s="9" t="s">
+      <c r="D79" s="17"/>
+      <c r="E79" s="11" t="s">
         <v>138</v>
       </c>
       <c r="F79" t="s">
@@ -3344,7 +7975,7 @@
       <c r="G79" t="s">
         <v>126</v>
       </c>
-      <c r="H79" s="10"/>
+      <c r="H79" s="15"/>
       <c r="I79" s="4" t="s">
         <v>107</v>
       </c>
@@ -3353,19 +7984,19 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="9"/>
+      <c r="B80" s="11"/>
       <c r="C80">
         <v>99999</v>
       </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="9"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="11"/>
       <c r="F80" t="s">
         <v>112</v>
       </c>
       <c r="G80" t="s">
         <v>126</v>
       </c>
-      <c r="H80" s="10"/>
+      <c r="H80" s="15"/>
       <c r="I80" s="5" t="s">
         <v>114</v>
       </c>
@@ -3377,23 +8008,23 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="9"/>
+      <c r="B81" s="11"/>
       <c r="C81" t="s">
         <v>70</v>
       </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="9"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="11"/>
       <c r="F81" t="s">
         <v>112</v>
       </c>
       <c r="G81" t="s">
         <v>126</v>
       </c>
-      <c r="H81" s="10"/>
+      <c r="H81" s="15"/>
       <c r="I81" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J81" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3401,63 +8032,63 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="11"/>
       <c r="C82" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="9"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="11"/>
       <c r="F82" t="s">
         <v>112</v>
       </c>
       <c r="G82" t="s">
         <v>126</v>
       </c>
-      <c r="H82" s="10"/>
+      <c r="H82" s="15"/>
       <c r="I82" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J82" s="9"/>
+      <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="9"/>
+      <c r="B83" s="11"/>
       <c r="C83" t="s">
         <v>39</v>
       </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="9"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="11"/>
       <c r="F83" t="s">
         <v>112</v>
       </c>
       <c r="G83" t="s">
         <v>126</v>
       </c>
-      <c r="H83" s="10"/>
+      <c r="H83" s="15"/>
       <c r="I83" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J83" s="9"/>
+      <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="11"/>
       <c r="C84" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="9"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="11"/>
       <c r="F84" t="s">
         <v>112</v>
       </c>
       <c r="G84" t="s">
         <v>126</v>
       </c>
-      <c r="H84" s="10"/>
+      <c r="H84" s="15"/>
       <c r="I84" s="6" t="s">
         <v>115</v>
       </c>
@@ -3466,14 +8097,14 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C85">
         <v>33</v>
       </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="9" t="s">
+      <c r="D85" s="17"/>
+      <c r="E85" s="11" t="s">
         <v>139</v>
       </c>
       <c r="F85" t="s">
@@ -3482,7 +8113,7 @@
       <c r="G85" t="s">
         <v>126</v>
       </c>
-      <c r="H85" s="10"/>
+      <c r="H85" s="15"/>
       <c r="I85" s="4" t="s">
         <v>107</v>
       </c>
@@ -3491,19 +8122,19 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="11"/>
       <c r="C86" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="9"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="11"/>
       <c r="F86" t="s">
         <v>144</v>
       </c>
       <c r="G86" t="s">
         <v>126</v>
       </c>
-      <c r="H86" s="10"/>
+      <c r="H86" s="15"/>
       <c r="I86" s="4" t="s">
         <v>107</v>
       </c>
@@ -3512,16 +8143,16 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="11"/>
       <c r="F87" t="s">
         <v>144</v>
       </c>
       <c r="G87" t="s">
         <v>126</v>
       </c>
-      <c r="H87" s="10"/>
+      <c r="H87" s="15"/>
       <c r="I87" s="4" t="s">
         <v>107</v>
       </c>
@@ -3530,19 +8161,19 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="9"/>
+      <c r="B88" s="11"/>
       <c r="C88">
         <v>12345678</v>
       </c>
-      <c r="D88" s="15"/>
-      <c r="E88" s="9"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="11"/>
       <c r="F88" t="s">
         <v>111</v>
       </c>
       <c r="G88" t="s">
         <v>126</v>
       </c>
-      <c r="H88" s="10"/>
+      <c r="H88" s="15"/>
       <c r="I88" s="4" t="s">
         <v>107</v>
       </c>
@@ -3551,23 +8182,23 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="9"/>
+      <c r="B89" s="11"/>
       <c r="C89" t="s">
         <v>74</v>
       </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="9"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="11"/>
       <c r="F89" t="s">
         <v>112</v>
       </c>
       <c r="G89" t="s">
         <v>126</v>
       </c>
-      <c r="H89" s="10"/>
+      <c r="H89" s="15"/>
       <c r="I89" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="J89" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3575,58 +8206,58 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="11"/>
       <c r="C90" t="s">
         <v>39</v>
       </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="9"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="11"/>
       <c r="F90" t="s">
         <v>112</v>
       </c>
       <c r="G90" t="s">
         <v>126</v>
       </c>
-      <c r="H90" s="10"/>
+      <c r="H90" s="15"/>
       <c r="I90" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J90" s="9"/>
+      <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="9"/>
+      <c r="B91" s="11"/>
       <c r="C91" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="15"/>
-      <c r="E91" s="9"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="11"/>
       <c r="F91" t="s">
         <v>112</v>
       </c>
       <c r="G91" t="s">
         <v>126</v>
       </c>
-      <c r="H91" s="10"/>
+      <c r="H91" s="15"/>
       <c r="I91" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J91" s="9"/>
+      <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C92" t="s">
         <v>76</v>
       </c>
-      <c r="D92" s="15"/>
-      <c r="E92" s="9" t="s">
+      <c r="D92" s="17"/>
+      <c r="E92" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F92" t="s">
@@ -3635,7 +8266,7 @@
       <c r="G92" t="s">
         <v>126</v>
       </c>
-      <c r="H92" s="10"/>
+      <c r="H92" s="15"/>
       <c r="I92" s="4" t="s">
         <v>107</v>
       </c>
@@ -3644,19 +8275,19 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="9"/>
+      <c r="B93" s="11"/>
       <c r="C93" t="s">
         <v>77</v>
       </c>
-      <c r="D93" s="15"/>
-      <c r="E93" s="9"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="11"/>
       <c r="F93" t="s">
         <v>144</v>
       </c>
       <c r="G93" t="s">
         <v>126</v>
       </c>
-      <c r="H93" s="10"/>
+      <c r="H93" s="15"/>
       <c r="I93" s="4" t="s">
         <v>107</v>
       </c>
@@ -3665,19 +8296,19 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="9"/>
+      <c r="B94" s="11"/>
       <c r="C94" t="s">
         <v>78</v>
       </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="9"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="11"/>
       <c r="F94" t="s">
         <v>144</v>
       </c>
       <c r="G94" t="s">
         <v>126</v>
       </c>
-      <c r="H94" s="10"/>
+      <c r="H94" s="15"/>
       <c r="I94" s="4" t="s">
         <v>107</v>
       </c>
@@ -3686,19 +8317,19 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="9"/>
+      <c r="B95" s="11"/>
       <c r="C95" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="9"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="11"/>
       <c r="F95" t="s">
         <v>144</v>
       </c>
       <c r="G95" t="s">
         <v>126</v>
       </c>
-      <c r="H95" s="10"/>
+      <c r="H95" s="15"/>
       <c r="I95" s="4" t="s">
         <v>107</v>
       </c>
@@ -3707,16 +8338,16 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="9"/>
+      <c r="B96" s="11"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="11"/>
       <c r="F96" t="s">
         <v>144</v>
       </c>
       <c r="G96" t="s">
         <v>126</v>
       </c>
-      <c r="H96" s="10"/>
+      <c r="H96" s="15"/>
       <c r="I96" s="4" t="s">
         <v>107</v>
       </c>
@@ -3725,19 +8356,19 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="9"/>
+      <c r="B97" s="11"/>
       <c r="C97" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="9"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="11"/>
       <c r="F97" t="s">
         <v>111</v>
       </c>
       <c r="G97" t="s">
         <v>126</v>
       </c>
-      <c r="H97" s="10"/>
+      <c r="H97" s="15"/>
       <c r="I97" s="4" t="s">
         <v>107</v>
       </c>
@@ -3746,23 +8377,23 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="9"/>
+      <c r="B98" s="11"/>
       <c r="C98" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="15"/>
-      <c r="E98" s="9"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="11"/>
       <c r="F98" t="s">
         <v>112</v>
       </c>
       <c r="G98" t="s">
         <v>126</v>
       </c>
-      <c r="H98" s="10"/>
+      <c r="H98" s="15"/>
       <c r="I98" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J98" s="9" t="s">
+      <c r="J98" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3770,58 +8401,58 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="9"/>
+      <c r="B99" s="11"/>
       <c r="C99">
         <v>123123123</v>
       </c>
-      <c r="D99" s="15"/>
-      <c r="E99" s="9"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="11"/>
       <c r="F99" t="s">
         <v>112</v>
       </c>
       <c r="G99" t="s">
         <v>126</v>
       </c>
-      <c r="H99" s="10"/>
+      <c r="H99" s="15"/>
       <c r="I99" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J99" s="9"/>
+      <c r="J99" s="11"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="9"/>
+      <c r="B100" s="11"/>
       <c r="C100" t="s">
         <v>82</v>
       </c>
-      <c r="D100" s="15"/>
-      <c r="E100" s="9"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="11"/>
       <c r="F100" t="s">
         <v>112</v>
       </c>
       <c r="G100" t="s">
         <v>126</v>
       </c>
-      <c r="H100" s="10"/>
+      <c r="H100" s="15"/>
       <c r="I100" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J100" s="9"/>
+      <c r="J100" s="11"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C101" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="15"/>
-      <c r="E101" s="9" t="s">
+      <c r="D101" s="17"/>
+      <c r="E101" s="11" t="s">
         <v>141</v>
       </c>
       <c r="F101" t="s">
@@ -3830,7 +8461,7 @@
       <c r="G101" t="s">
         <v>126</v>
       </c>
-      <c r="H101" s="10"/>
+      <c r="H101" s="15"/>
       <c r="I101" s="4" t="s">
         <v>107</v>
       </c>
@@ -3839,19 +8470,19 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="11"/>
       <c r="C102" t="s">
         <v>21</v>
       </c>
-      <c r="D102" s="15"/>
-      <c r="E102" s="10"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="15"/>
       <c r="F102" t="s">
         <v>144</v>
       </c>
       <c r="G102" t="s">
         <v>126</v>
       </c>
-      <c r="H102" s="10"/>
+      <c r="H102" s="15"/>
       <c r="I102" s="4" t="s">
         <v>107</v>
       </c>
@@ -3860,19 +8491,19 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="9"/>
+      <c r="B103" s="11"/>
       <c r="C103" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="15"/>
-      <c r="E103" s="10"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="15"/>
       <c r="F103" t="s">
         <v>144</v>
       </c>
       <c r="G103" t="s">
         <v>126</v>
       </c>
-      <c r="H103" s="10"/>
+      <c r="H103" s="15"/>
       <c r="I103" s="4" t="s">
         <v>107</v>
       </c>
@@ -3881,16 +8512,16 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="9"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="15"/>
       <c r="F104" t="s">
         <v>112</v>
       </c>
       <c r="G104" t="s">
         <v>126</v>
       </c>
-      <c r="H104" s="10"/>
+      <c r="H104" s="15"/>
       <c r="I104" s="5" t="s">
         <v>114</v>
       </c>
@@ -3902,19 +8533,19 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="9"/>
+      <c r="B105" s="11"/>
       <c r="C105" t="s">
         <v>23</v>
       </c>
-      <c r="D105" s="15"/>
-      <c r="E105" s="10"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="15"/>
       <c r="F105" t="s">
         <v>111</v>
       </c>
       <c r="G105" t="s">
         <v>126</v>
       </c>
-      <c r="H105" s="10"/>
+      <c r="H105" s="15"/>
       <c r="I105" s="4" t="s">
         <v>107</v>
       </c>
@@ -3923,23 +8554,23 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="9"/>
+      <c r="B106" s="11"/>
       <c r="C106" t="s">
         <v>24</v>
       </c>
-      <c r="D106" s="15"/>
-      <c r="E106" s="10"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="15"/>
       <c r="F106" t="s">
         <v>112</v>
       </c>
       <c r="G106" t="s">
         <v>126</v>
       </c>
-      <c r="H106" s="10"/>
+      <c r="H106" s="15"/>
       <c r="I106" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J106" s="9" t="s">
+      <c r="J106" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3947,80 +8578,80 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="9"/>
+      <c r="B107" s="11"/>
       <c r="C107" t="s">
         <v>25</v>
       </c>
-      <c r="D107" s="15"/>
-      <c r="E107" s="10"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="15"/>
       <c r="F107" t="s">
         <v>112</v>
       </c>
       <c r="G107" t="s">
         <v>126</v>
       </c>
-      <c r="H107" s="10"/>
+      <c r="H107" s="15"/>
       <c r="I107" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J107" s="9"/>
+      <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="9"/>
+      <c r="B108" s="11"/>
       <c r="C108">
         <v>123</v>
       </c>
-      <c r="D108" s="15"/>
-      <c r="E108" s="10"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="15"/>
       <c r="F108" t="s">
         <v>112</v>
       </c>
       <c r="G108" t="s">
         <v>126</v>
       </c>
-      <c r="H108" s="10"/>
+      <c r="H108" s="15"/>
       <c r="I108" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J108" s="9"/>
+      <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="9"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="15"/>
-      <c r="E109" s="10"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="15"/>
       <c r="F109" t="s">
         <v>112</v>
       </c>
       <c r="G109" t="s">
         <v>126</v>
       </c>
-      <c r="H109" s="10"/>
+      <c r="H109" s="15"/>
       <c r="I109" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J109" s="9"/>
+      <c r="J109" s="11"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
       </c>
-      <c r="D110" s="15"/>
-      <c r="E110" s="9" t="s">
+      <c r="D110" s="17"/>
+      <c r="E110" s="11" t="s">
         <v>142</v>
       </c>
       <c r="F110" t="s">
@@ -4029,7 +8660,7 @@
       <c r="G110" t="s">
         <v>126</v>
       </c>
-      <c r="H110" s="10"/>
+      <c r="H110" s="15"/>
       <c r="I110" s="4" t="s">
         <v>107</v>
       </c>
@@ -4038,19 +8669,19 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="9"/>
+      <c r="B111" s="11"/>
       <c r="C111" t="s">
         <v>28</v>
       </c>
-      <c r="D111" s="15"/>
-      <c r="E111" s="10"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="15"/>
       <c r="F111" t="s">
         <v>144</v>
       </c>
       <c r="G111" t="s">
         <v>126</v>
       </c>
-      <c r="H111" s="10"/>
+      <c r="H111" s="15"/>
       <c r="I111" s="4" t="s">
         <v>107</v>
       </c>
@@ -4059,19 +8690,19 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="9"/>
+      <c r="B112" s="11"/>
       <c r="C112" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="15"/>
-      <c r="E112" s="10"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="15"/>
       <c r="F112" t="s">
         <v>144</v>
       </c>
       <c r="G112" t="s">
         <v>126</v>
       </c>
-      <c r="H112" s="10"/>
+      <c r="H112" s="15"/>
       <c r="I112" s="4" t="s">
         <v>107</v>
       </c>
@@ -4080,19 +8711,19 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="9"/>
+      <c r="B113" s="11"/>
       <c r="C113" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="10"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="15"/>
       <c r="F113" t="s">
         <v>144</v>
       </c>
       <c r="G113" t="s">
         <v>126</v>
       </c>
-      <c r="H113" s="10"/>
+      <c r="H113" s="15"/>
       <c r="I113" s="4" t="s">
         <v>107</v>
       </c>
@@ -4101,19 +8732,19 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="9"/>
+      <c r="B114" s="11"/>
       <c r="C114" t="s">
         <v>31</v>
       </c>
-      <c r="D114" s="15"/>
-      <c r="E114" s="10"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="15"/>
       <c r="F114" t="s">
         <v>111</v>
       </c>
       <c r="G114" t="s">
         <v>126</v>
       </c>
-      <c r="H114" s="10"/>
+      <c r="H114" s="15"/>
       <c r="I114" s="4" t="s">
         <v>107</v>
       </c>
@@ -4122,16 +8753,16 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="9"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="10"/>
+      <c r="B115" s="11"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="15"/>
       <c r="F115" t="s">
         <v>112</v>
       </c>
       <c r="G115" t="s">
         <v>126</v>
       </c>
-      <c r="H115" s="10"/>
+      <c r="H115" s="15"/>
       <c r="I115" s="5" t="s">
         <v>114</v>
       </c>
@@ -4140,23 +8771,23 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="9"/>
+      <c r="B116" s="11"/>
       <c r="C116" t="s">
         <v>32</v>
       </c>
-      <c r="D116" s="15"/>
-      <c r="E116" s="10"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="15"/>
       <c r="F116" t="s">
         <v>112</v>
       </c>
       <c r="G116" t="s">
         <v>126</v>
       </c>
-      <c r="H116" s="10"/>
+      <c r="H116" s="15"/>
       <c r="I116" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J116" s="9" t="s">
+      <c r="J116" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4164,58 +8795,58 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="9"/>
+      <c r="B117" s="11"/>
       <c r="C117">
         <v>123</v>
       </c>
-      <c r="D117" s="15"/>
-      <c r="E117" s="10"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="15"/>
       <c r="F117" t="s">
         <v>112</v>
       </c>
       <c r="G117" t="s">
         <v>126</v>
       </c>
-      <c r="H117" s="10"/>
+      <c r="H117" s="15"/>
       <c r="I117" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J117" s="9"/>
+      <c r="J117" s="11"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="9"/>
+      <c r="B118" s="11"/>
       <c r="C118" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D118" s="15"/>
-      <c r="E118" s="10"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="15"/>
       <c r="F118" t="s">
         <v>112</v>
       </c>
       <c r="G118" t="s">
         <v>126</v>
       </c>
-      <c r="H118" s="10"/>
+      <c r="H118" s="15"/>
       <c r="I118" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="J118" s="9"/>
+      <c r="J118" s="11"/>
     </row>
     <row r="119" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C119" t="s">
         <v>40</v>
       </c>
-      <c r="D119" s="15"/>
-      <c r="E119" s="9" t="s">
+      <c r="D119" s="17"/>
+      <c r="E119" s="11" t="s">
         <v>143</v>
       </c>
       <c r="F119" t="s">
@@ -4224,7 +8855,7 @@
       <c r="G119" t="s">
         <v>126</v>
       </c>
-      <c r="H119" s="10"/>
+      <c r="H119" s="15"/>
       <c r="I119" s="4" t="s">
         <v>107</v>
       </c>
@@ -4233,19 +8864,19 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="9"/>
+      <c r="B120" s="11"/>
       <c r="C120" t="s">
         <v>41</v>
       </c>
-      <c r="D120" s="15"/>
-      <c r="E120" s="9"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="11"/>
       <c r="F120" t="s">
         <v>144</v>
       </c>
       <c r="G120" t="s">
         <v>126</v>
       </c>
-      <c r="H120" s="10"/>
+      <c r="H120" s="15"/>
       <c r="I120" s="4" t="s">
         <v>107</v>
       </c>
@@ -4254,19 +8885,19 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="9"/>
+      <c r="B121" s="11"/>
       <c r="C121" t="s">
         <v>42</v>
       </c>
-      <c r="D121" s="15"/>
-      <c r="E121" s="9"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="11"/>
       <c r="F121" t="s">
         <v>144</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
       </c>
-      <c r="H121" s="10"/>
+      <c r="H121" s="15"/>
       <c r="I121" s="4" t="s">
         <v>107</v>
       </c>
@@ -4275,19 +8906,19 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="9"/>
+      <c r="B122" s="11"/>
       <c r="C122" t="s">
         <v>43</v>
       </c>
-      <c r="D122" s="15"/>
-      <c r="E122" s="9"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="11"/>
       <c r="F122" t="s">
         <v>144</v>
       </c>
       <c r="G122" t="s">
         <v>126</v>
       </c>
-      <c r="H122" s="10"/>
+      <c r="H122" s="15"/>
       <c r="I122" s="4" t="s">
         <v>107</v>
       </c>
@@ -4296,19 +8927,19 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="9"/>
+      <c r="B123" s="11"/>
       <c r="C123" t="s">
         <v>44</v>
       </c>
-      <c r="D123" s="15"/>
-      <c r="E123" s="9"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="11"/>
       <c r="F123" t="s">
         <v>144</v>
       </c>
       <c r="G123" t="s">
         <v>126</v>
       </c>
-      <c r="H123" s="10"/>
+      <c r="H123" s="15"/>
       <c r="I123" s="4" t="s">
         <v>107</v>
       </c>
@@ -4317,19 +8948,19 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="9"/>
+      <c r="B124" s="11"/>
       <c r="C124" t="s">
         <v>45</v>
       </c>
-      <c r="D124" s="15"/>
-      <c r="E124" s="9"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="11"/>
       <c r="F124" t="s">
         <v>144</v>
       </c>
       <c r="G124" t="s">
         <v>126</v>
       </c>
-      <c r="H124" s="10"/>
+      <c r="H124" s="15"/>
       <c r="I124" s="4" t="s">
         <v>107</v>
       </c>
@@ -4338,19 +8969,19 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="9"/>
+      <c r="B125" s="11"/>
       <c r="C125" t="s">
         <v>46</v>
       </c>
-      <c r="D125" s="15"/>
-      <c r="E125" s="9"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="11"/>
       <c r="F125" t="s">
         <v>144</v>
       </c>
       <c r="G125" t="s">
         <v>126</v>
       </c>
-      <c r="H125" s="10"/>
+      <c r="H125" s="15"/>
       <c r="I125" s="4" t="s">
         <v>107</v>
       </c>
@@ -4359,19 +8990,19 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="9"/>
+      <c r="B126" s="11"/>
       <c r="C126" t="s">
         <v>47</v>
       </c>
-      <c r="D126" s="15"/>
-      <c r="E126" s="9"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="11"/>
       <c r="F126" t="s">
         <v>144</v>
       </c>
       <c r="G126" t="s">
         <v>126</v>
       </c>
-      <c r="H126" s="10"/>
+      <c r="H126" s="15"/>
       <c r="I126" s="4" t="s">
         <v>107</v>
       </c>
@@ -4380,19 +9011,19 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="9"/>
+      <c r="B127" s="11"/>
       <c r="C127" t="s">
         <v>48</v>
       </c>
-      <c r="D127" s="15"/>
-      <c r="E127" s="9"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="11"/>
       <c r="F127" t="s">
         <v>144</v>
       </c>
       <c r="G127" t="s">
         <v>126</v>
       </c>
-      <c r="H127" s="10"/>
+      <c r="H127" s="15"/>
       <c r="I127" s="4" t="s">
         <v>107</v>
       </c>
@@ -4401,19 +9032,19 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="9"/>
+      <c r="B128" s="11"/>
       <c r="C128" t="s">
         <v>49</v>
       </c>
-      <c r="D128" s="15"/>
-      <c r="E128" s="9"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="11"/>
       <c r="F128" t="s">
         <v>112</v>
       </c>
       <c r="G128" t="s">
         <v>126</v>
       </c>
-      <c r="H128" s="10"/>
+      <c r="H128" s="15"/>
       <c r="I128" s="4" t="s">
         <v>107</v>
       </c>
@@ -4422,19 +9053,19 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="9"/>
+      <c r="B129" s="11"/>
       <c r="C129" t="s">
         <v>50</v>
       </c>
-      <c r="D129" s="15"/>
-      <c r="E129" s="9"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="11"/>
       <c r="F129" t="s">
         <v>112</v>
       </c>
       <c r="G129" t="s">
         <v>126</v>
       </c>
-      <c r="H129" s="10"/>
+      <c r="H129" s="15"/>
       <c r="I129" s="4" t="s">
         <v>107</v>
       </c>
@@ -4443,19 +9074,19 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="9"/>
+      <c r="B130" s="11"/>
       <c r="C130" t="s">
         <v>51</v>
       </c>
-      <c r="D130" s="15"/>
-      <c r="E130" s="9"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="11"/>
       <c r="F130" t="s">
         <v>112</v>
       </c>
       <c r="G130" t="s">
         <v>126</v>
       </c>
-      <c r="H130" s="10"/>
+      <c r="H130" s="15"/>
       <c r="I130" s="4" t="s">
         <v>107</v>
       </c>
@@ -4464,19 +9095,19 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="9"/>
+      <c r="B131" s="11"/>
       <c r="C131" t="s">
         <v>52</v>
       </c>
-      <c r="D131" s="15"/>
-      <c r="E131" s="9"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="11"/>
       <c r="F131" t="s">
         <v>112</v>
       </c>
       <c r="G131" t="s">
         <v>126</v>
       </c>
-      <c r="H131" s="10"/>
+      <c r="H131" s="15"/>
       <c r="I131" s="4" t="s">
         <v>107</v>
       </c>
@@ -4485,16 +9116,16 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="9"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="9"/>
+      <c r="B132" s="11"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="11"/>
       <c r="F132" t="s">
         <v>112</v>
       </c>
       <c r="G132" t="s">
         <v>126</v>
       </c>
-      <c r="H132" s="10"/>
+      <c r="H132" s="15"/>
       <c r="I132" s="5" t="s">
         <v>114</v>
       </c>
@@ -4506,19 +9137,19 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="9"/>
+      <c r="B133" s="11"/>
       <c r="C133" t="s">
         <v>53</v>
       </c>
-      <c r="D133" s="15"/>
-      <c r="E133" s="9"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="11"/>
       <c r="F133" t="s">
         <v>112</v>
       </c>
       <c r="G133" t="s">
         <v>126</v>
       </c>
-      <c r="H133" s="10"/>
+      <c r="H133" s="15"/>
       <c r="I133" s="4" t="s">
         <v>107</v>
       </c>
@@ -4527,19 +9158,19 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="9"/>
+      <c r="B134" s="11"/>
       <c r="C134" t="s">
         <v>54</v>
       </c>
-      <c r="D134" s="15"/>
-      <c r="E134" s="9"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="11"/>
       <c r="F134" t="s">
         <v>112</v>
       </c>
       <c r="G134" t="s">
         <v>126</v>
       </c>
-      <c r="H134" s="10"/>
+      <c r="H134" s="15"/>
       <c r="I134" s="4" t="s">
         <v>107</v>
       </c>
@@ -4548,19 +9179,19 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="9"/>
+      <c r="B135" s="11"/>
       <c r="C135" t="s">
         <v>55</v>
       </c>
-      <c r="D135" s="15"/>
-      <c r="E135" s="9"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="11"/>
       <c r="F135" t="s">
         <v>112</v>
       </c>
       <c r="G135" t="s">
         <v>126</v>
       </c>
-      <c r="H135" s="10"/>
+      <c r="H135" s="15"/>
       <c r="I135" s="4" t="s">
         <v>107</v>
       </c>
@@ -4569,32 +9200,32 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="9"/>
+      <c r="B136" s="11"/>
       <c r="C136" t="s">
         <v>56</v>
       </c>
-      <c r="D136" s="15"/>
-      <c r="E136" s="9"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="11"/>
       <c r="F136" t="s">
         <v>112</v>
       </c>
       <c r="G136" t="s">
         <v>126</v>
       </c>
-      <c r="H136" s="10"/>
+      <c r="H136" s="15"/>
       <c r="I136" s="4" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E110:E118"/>
     <mergeCell ref="J11:J14"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="E79:E84"/>
     <mergeCell ref="E85:E91"/>
     <mergeCell ref="E92:E100"/>
     <mergeCell ref="J98:J100"/>
-    <mergeCell ref="J116:J118"/>
     <mergeCell ref="B6:B14"/>
     <mergeCell ref="B15:B23"/>
     <mergeCell ref="B24:B32"/>
@@ -4608,8 +9239,6 @@
     <mergeCell ref="B79:B84"/>
     <mergeCell ref="B85:B91"/>
     <mergeCell ref="B92:B100"/>
-    <mergeCell ref="E101:E109"/>
-    <mergeCell ref="E110:E118"/>
     <mergeCell ref="E119:E136"/>
     <mergeCell ref="J106:J109"/>
     <mergeCell ref="H2:H5"/>
@@ -4624,6 +9253,8 @@
     <mergeCell ref="J81:J83"/>
     <mergeCell ref="J89:J91"/>
     <mergeCell ref="E70:E78"/>
+    <mergeCell ref="J116:J118"/>
+    <mergeCell ref="E101:E109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1" xr:uid="{1BDD3FEE-8751-4F6F-91AE-D7A7174FB376}"/>
@@ -4644,13 +9275,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64194834-980D-4E77-9030-BA62A4FF0CDB}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4698,7 +9329,7 @@
       <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -4710,7 +9341,7 @@
       <c r="F2" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>165</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -4724,8 +9355,8 @@
       <c r="B3" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>151</v>
       </c>
       <c r="E3" t="s">
@@ -4734,7 +9365,7 @@
       <c r="F3" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>166</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -4748,15 +9379,15 @@
       <c r="B4" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="15"/>
       <c r="E4" t="s">
         <v>153</v>
       </c>
       <c r="F4" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="4" t="s">
         <v>107</v>
       </c>
@@ -4768,15 +9399,15 @@
       <c r="B5" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="15"/>
       <c r="E5" t="s">
         <v>154</v>
       </c>
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="4" t="s">
         <v>107</v>
       </c>
@@ -4788,15 +9419,15 @@
       <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="15"/>
       <c r="E6" t="s">
         <v>155</v>
       </c>
       <c r="F6" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="4" t="s">
         <v>107</v>
       </c>
@@ -4808,15 +9439,15 @@
       <c r="B7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="15"/>
       <c r="E7" t="s">
         <v>156</v>
       </c>
       <c r="F7" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="4" t="s">
         <v>107</v>
       </c>
@@ -4828,15 +9459,15 @@
       <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="15"/>
       <c r="E8" t="s">
         <v>157</v>
       </c>
       <c r="F8" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="4" t="s">
         <v>107</v>
       </c>
@@ -4848,15 +9479,15 @@
       <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="15"/>
       <c r="E9" t="s">
         <v>158</v>
       </c>
       <c r="F9" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="4" t="s">
         <v>107</v>
       </c>
@@ -4868,15 +9499,15 @@
       <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15"/>
       <c r="E10" t="s">
         <v>153</v>
       </c>
       <c r="F10" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="4" t="s">
         <v>107</v>
       </c>
@@ -4888,15 +9519,15 @@
       <c r="B11" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
       <c r="E11" t="s">
         <v>154</v>
       </c>
       <c r="F11" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="4" t="s">
         <v>107</v>
       </c>
@@ -4908,15 +9539,15 @@
       <c r="B12" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="15"/>
       <c r="E12" t="s">
         <v>155</v>
       </c>
       <c r="F12" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="4" t="s">
         <v>107</v>
       </c>
@@ -4928,15 +9559,15 @@
       <c r="B13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15"/>
       <c r="E13" t="s">
         <v>156</v>
       </c>
       <c r="F13" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="4" t="s">
         <v>107</v>
       </c>
@@ -4948,15 +9579,15 @@
       <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15"/>
       <c r="E14" t="s">
         <v>159</v>
       </c>
       <c r="F14" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="4" t="s">
         <v>107</v>
       </c>
@@ -4968,15 +9599,15 @@
       <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="15"/>
       <c r="E15" t="s">
         <v>152</v>
       </c>
       <c r="F15" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="4" t="s">
         <v>107</v>
       </c>
@@ -4988,15 +9619,15 @@
       <c r="B16" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="15"/>
       <c r="E16" t="s">
         <v>153</v>
       </c>
       <c r="F16" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="4" t="s">
         <v>107</v>
       </c>
@@ -5008,15 +9639,15 @@
       <c r="B17" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="15"/>
       <c r="E17" t="s">
         <v>154</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="4" t="s">
         <v>107</v>
       </c>
@@ -5028,15 +9659,15 @@
       <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="15"/>
       <c r="E18" t="s">
         <v>155</v>
       </c>
       <c r="F18" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="4" t="s">
         <v>107</v>
       </c>
@@ -5048,15 +9679,15 @@
       <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="15"/>
       <c r="E19" t="s">
         <v>156</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="4" t="s">
         <v>107</v>
       </c>
@@ -5068,15 +9699,15 @@
       <c r="B20" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="15"/>
       <c r="E20" t="s">
         <v>157</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="4" t="s">
         <v>107</v>
       </c>
@@ -5088,15 +9719,15 @@
       <c r="B21" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="15"/>
       <c r="E21" t="s">
         <v>158</v>
       </c>
       <c r="F21" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="4" t="s">
         <v>107</v>
       </c>
@@ -5108,15 +9739,15 @@
       <c r="B22" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="15"/>
       <c r="E22" t="s">
         <v>160</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="4" t="s">
         <v>107</v>
       </c>
